--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1958284.231971703</v>
+        <v>2016615.869752917</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7002695.503828037</v>
+        <v>5851605.615330299</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2105066.808676569</v>
+        <v>864456.6793124477</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7399431.939428309</v>
+        <v>7803987.788751866</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +661,13 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
@@ -674,7 +676,7 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>133.7506211189875</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>278.5274465634477</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +749,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>105.9202115588047</v>
@@ -795,16 +797,16 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368968</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>71.62805901147433</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>65.51548309223371</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -835,7 +837,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>165.421695385058</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>185.3896453338868</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>163.6300863499611</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +980,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
-        <v>115.7281862028015</v>
+        <v>115.7281862028016</v>
       </c>
       <c r="E6" t="n">
         <v>119.2878878475953</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,16 +1110,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>38.7948261362281</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>102.1568500340711</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>228.5081640951132</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>10.19681332827224</v>
@@ -1145,10 +1147,10 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>11.9574589526231</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>2.669058643913815</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>153.9771234656898</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -1351,7 +1353,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W11" t="n">
-        <v>318.7597585881098</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>367.1380221263987</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S13" t="n">
-        <v>164.9906104355343</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>15.39236521391948</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C14" t="n">
-        <v>136.6926882651184</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F14" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G14" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975959</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>104.4293227275022</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U14" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V14" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W14" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X14" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y14" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1767,25 @@
         <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>19.11361866832429</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U16" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>153.1232296913713</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W16" t="n">
         <v>246.7800261198764</v>
@@ -1831,7 +1833,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="17">
@@ -1847,22 +1849,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D17" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E17" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F17" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G17" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722221</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975959</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,19 +1900,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U17" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V17" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W17" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X17" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y17" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="18">
@@ -2002,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875627</v>
+        <v>59.64309870642058</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>104.4834163879007</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T19" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U19" t="n">
         <v>250.4712242529991</v>
@@ -2068,7 +2070,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975959</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,7 +2241,7 @@
         <v>156.323767603766</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>33.12209635668106</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>85.68364371037913</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S22" t="n">
-        <v>38.77597185760948</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T22" t="n">
         <v>207.6543099067269</v>
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C23" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D23" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E23" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F23" t="n">
         <v>387.3211661995113</v>
@@ -2333,10 +2335,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H23" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975959</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T23" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U23" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V23" t="n">
         <v>316.8402373905461</v>
@@ -2381,7 +2383,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X23" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y23" t="n">
         <v>367.4283645950528</v>
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.323767603766</v>
+        <v>120.5486344510751</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G25" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U25" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V25" t="n">
-        <v>153.1232296913713</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W25" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X25" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
         <v>139.8834969875627</v>
@@ -2719,13 +2721,13 @@
         <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>54.92104941501635</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U28" t="n">
         <v>250.4712242529991</v>
@@ -2776,10 +2778,10 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X28" t="n">
-        <v>90.93872728518002</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.9893998987849</v>
+        <v>164.2887245564978</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C29" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D29" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E29" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F29" t="n">
         <v>387.3211661995113</v>
@@ -2807,10 +2809,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H29" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722223</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975959</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T29" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U29" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V29" t="n">
         <v>316.8402373905461</v>
@@ -2855,7 +2857,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X29" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y29" t="n">
         <v>367.4283645950528</v>
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4007565039811</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E31" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>40.53521057666124</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501637</v>
+        <v>54.9210494150163</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T31" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V31" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W31" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X31" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.989399898785</v>
+        <v>114.1510103676891</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C32" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D32" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E32" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F32" t="n">
         <v>387.3211661995113</v>
@@ -3044,10 +3046,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H32" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332975959</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T32" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U32" t="n">
-        <v>224.9909450967475</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V32" t="n">
         <v>316.8402373905461</v>
@@ -3092,7 +3094,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X32" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y32" t="n">
         <v>367.4283645950528</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>33.12209635668076</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>49.5623669728852</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501637</v>
+        <v>54.9210494150163</v>
       </c>
       <c r="S34" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T34" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U34" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V34" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W34" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X34" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y34" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D35" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815327</v>
       </c>
       <c r="E35" t="n">
         <v>380.6978716019343</v>
@@ -3284,7 +3286,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332976053</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>61.04510745646595</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>88.04314577169704</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S37" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T37" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U37" t="n">
         <v>250.4712242529991</v>
@@ -3490,7 +3492,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="38">
@@ -3506,22 +3508,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D38" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E38" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F38" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995107</v>
       </c>
       <c r="G38" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H38" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I38" t="n">
-        <v>55.98930332975959</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>104.4293227275031</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T38" t="n">
         <v>190.4854774862718</v>
       </c>
       <c r="U38" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V38" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W38" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X38" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y38" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="39">
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>88.04314577169704</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S40" t="n">
         <v>155.0289087125509</v>
@@ -3727,7 +3729,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y40" t="n">
-        <v>192.989399898785</v>
+        <v>114.1510103676875</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>376.6200261415066</v>
+        <v>406.1189678678445</v>
       </c>
       <c r="C41" t="n">
-        <v>376.5244030535246</v>
+        <v>406.0233447798625</v>
       </c>
       <c r="D41" t="n">
-        <v>370.920348881532</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>380.6978716019343</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>387.3211661995113</v>
+        <v>416.8201079258492</v>
       </c>
       <c r="G41" t="n">
-        <v>375.1420595397581</v>
+        <v>47.64512042712371</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985591</v>
       </c>
       <c r="I41" t="n">
-        <v>55.98930332975959</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126097</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.4898868230849</v>
       </c>
       <c r="V41" t="n">
-        <v>316.8402373905461</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.922697856183</v>
       </c>
       <c r="X41" t="n">
-        <v>324.6409199343882</v>
+        <v>396.6369638527369</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213907</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>129.8027652540258</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>133.4858729041767</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>136.078945437374</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>85.68364371037913</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>246.7800261198764</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>156.5834877485227</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>192.989399898785</v>
+        <v>206.6365468953419</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -3995,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
@@ -4034,16 +4036,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>314.0518665500859</v>
       </c>
       <c r="W44" t="n">
-        <v>157.7862861178099</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4135,7 +4137,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>42.43741174507666</v>
+        <v>8.888548631817493</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1023.43294323257</v>
+        <v>72.65179874853447</v>
       </c>
       <c r="C2" t="n">
-        <v>613.3083525458396</v>
+        <v>66.56761210220866</v>
       </c>
       <c r="D2" t="n">
-        <v>612.8848266793042</v>
+        <v>66.14408623567326</v>
       </c>
       <c r="E2" t="n">
-        <v>198.5446111962009</v>
+        <v>55.84427479297402</v>
       </c>
       <c r="F2" t="n">
-        <v>181.5546031902925</v>
+        <v>38.85426678706563</v>
       </c>
       <c r="G2" t="n">
-        <v>176.8667231235288</v>
+        <v>34.16638672030189</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>34.16638672030189</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960205</v>
+        <v>34.16638672030189</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>288.3518581880562</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1688317915616</v>
+        <v>711.160893851792</v>
       </c>
       <c r="L2" t="n">
-        <v>1014.011766457887</v>
+        <v>711.160893851792</v>
       </c>
       <c r="M2" t="n">
-        <v>1530.854701124212</v>
+        <v>964.3492935560666</v>
       </c>
       <c r="N2" t="n">
-        <v>2047.697635790537</v>
+        <v>964.3492935560666</v>
       </c>
       <c r="O2" t="n">
-        <v>2047.697635790537</v>
+        <v>964.3492935560666</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1387.158329219802</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="R2" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1573.038260809195</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1350.831776756054</v>
       </c>
       <c r="U2" t="n">
-        <v>1831.193789739612</v>
+        <v>1093.771285015564</v>
       </c>
       <c r="V2" t="n">
-        <v>1831.193789739612</v>
+        <v>743.9337303520449</v>
       </c>
       <c r="W2" t="n">
-        <v>1831.193789739612</v>
+        <v>360.1734294872135</v>
       </c>
       <c r="X2" t="n">
-        <v>1430.550391908565</v>
+        <v>78.83257437261989</v>
       </c>
       <c r="Y2" t="n">
-        <v>1029.613718856655</v>
+        <v>78.83257437261989</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>604.037348789341</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>470.0422775382866</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>353.145119757679</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>232.652303750007</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>232.652303750007</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>125.6621910643457</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>54.91497810006172</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>34.16638672030189</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>34.16638672030189</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960205</v>
+        <v>90.04776433990349</v>
       </c>
       <c r="L3" t="n">
-        <v>41.76508562960205</v>
+        <v>512.8568000036394</v>
       </c>
       <c r="M3" t="n">
-        <v>158.3214934345131</v>
+        <v>512.8568000036394</v>
       </c>
       <c r="N3" t="n">
-        <v>675.1644281008383</v>
+        <v>512.8568000036394</v>
       </c>
       <c r="O3" t="n">
-        <v>1192.007362767164</v>
+        <v>935.6658356673752</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>1358.474871331111</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="R3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="S3" t="n">
-        <v>1980.264271594411</v>
+        <v>1600.329326129403</v>
       </c>
       <c r="T3" t="n">
-        <v>1820.922407781419</v>
+        <v>1440.987462316411</v>
       </c>
       <c r="U3" t="n">
-        <v>1623.571596919638</v>
+        <v>1243.63665145463</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912671</v>
+        <v>1029.925124447664</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>816.6919561839926</v>
       </c>
       <c r="X3" t="n">
-        <v>1020.300919787893</v>
+        <v>744.3403814249276</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>744.3403814249276</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>748.9259581138216</v>
+        <v>1123.500237021439</v>
       </c>
       <c r="C4" t="n">
-        <v>748.9259581138216</v>
+        <v>952.4068645831551</v>
       </c>
       <c r="D4" t="n">
-        <v>589.4313134367317</v>
+        <v>792.912219906065</v>
       </c>
       <c r="E4" t="n">
-        <v>523.2540577880108</v>
+        <v>632.0014047743845</v>
       </c>
       <c r="F4" t="n">
-        <v>358.622931898602</v>
+        <v>467.3702788849757</v>
       </c>
       <c r="G4" t="n">
-        <v>191.3725408241454</v>
+        <v>300.1198878105191</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>150.5124326159757</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>34.16638672030189</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>48.24893612551241</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>202.8012638477504</v>
       </c>
       <c r="L4" t="n">
-        <v>470.2970630371111</v>
+        <v>462.6983641278109</v>
       </c>
       <c r="M4" t="n">
-        <v>759.5611194776044</v>
+        <v>751.9624205683042</v>
       </c>
       <c r="N4" t="n">
-        <v>1040.399901871855</v>
+        <v>1032.801202962554</v>
       </c>
       <c r="O4" t="n">
-        <v>1299.960512198329</v>
+        <v>1292.361813289029</v>
       </c>
       <c r="P4" t="n">
-        <v>1505.635952447941</v>
+        <v>1498.037253538641</v>
       </c>
       <c r="Q4" t="n">
-        <v>1571.163982250452</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1478.292565016552</v>
       </c>
       <c r="S4" t="n">
-        <v>1485.891263925851</v>
+        <v>1311.199943415483</v>
       </c>
       <c r="T4" t="n">
-        <v>1485.891263925851</v>
+        <v>1311.199943415483</v>
       </c>
       <c r="U4" t="n">
-        <v>1485.891263925851</v>
+        <v>1311.199943415483</v>
       </c>
       <c r="V4" t="n">
-        <v>1212.005518865373</v>
+        <v>1311.199943415483</v>
       </c>
       <c r="W4" t="n">
-        <v>1212.005518865373</v>
+        <v>1311.199943415483</v>
       </c>
       <c r="X4" t="n">
-        <v>973.6616567250569</v>
+        <v>1311.199943415483</v>
       </c>
       <c r="Y4" t="n">
-        <v>748.9259581138216</v>
+        <v>1311.199943415483</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>671.1296438457305</v>
+        <v>725.6257684434776</v>
       </c>
       <c r="C5" t="n">
-        <v>261.0050531590006</v>
+        <v>719.5415817971517</v>
       </c>
       <c r="D5" t="n">
-        <v>73.74278514497341</v>
+        <v>315.0776518902122</v>
       </c>
       <c r="E5" t="n">
-        <v>63.44297370227418</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F5" t="n">
-        <v>46.45296569636579</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4571,19 +4573,19 @@
         <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
-        <v>733.4074053521598</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>733.4074053521598</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N5" t="n">
-        <v>733.4074053521598</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O5" t="n">
-        <v>1250.250340018485</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
         <v>2088.254281480102</v>
@@ -4601,16 +4603,16 @@
         <v>1866.047797426961</v>
       </c>
       <c r="V5" t="n">
-        <v>1866.047797426961</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="W5" t="n">
-        <v>1482.28749656213</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="X5" t="n">
-        <v>1482.28749656213</v>
+        <v>731.806544067563</v>
       </c>
       <c r="Y5" t="n">
-        <v>1081.35082351022</v>
+        <v>731.806544067563</v>
       </c>
     </row>
     <row r="6">
@@ -4623,49 +4625,49 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>234.5779431922353</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>234.5779431922353</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N6" t="n">
-        <v>675.1644281008383</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O6" t="n">
-        <v>1192.007362767164</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433489</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>489.9926484891412</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>489.9926484891412</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>489.9926484891412</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>489.9926484891412</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>325.3615225997325</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4756,19 +4758,19 @@
         <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1059.950756782464</v>
+        <v>1020.764063715567</v>
       </c>
       <c r="V7" t="n">
-        <v>1059.950756782464</v>
+        <v>746.8783186550887</v>
       </c>
       <c r="W7" t="n">
-        <v>780.8810922913383</v>
+        <v>467.8086541639631</v>
       </c>
       <c r="X7" t="n">
-        <v>677.6923548831857</v>
+        <v>229.4647920236465</v>
       </c>
       <c r="Y7" t="n">
-        <v>677.6923548831857</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>391.3344010632369</v>
+        <v>1285.591565793852</v>
       </c>
       <c r="C8" t="n">
-        <v>160.5180736944356</v>
+        <v>1279.507379147526</v>
       </c>
       <c r="D8" t="n">
-        <v>160.0945478279002</v>
+        <v>875.0434492405864</v>
       </c>
       <c r="E8" t="n">
-        <v>149.794736385201</v>
+        <v>864.7436377978871</v>
       </c>
       <c r="F8" t="n">
-        <v>132.8047283792926</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G8" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H8" t="n">
         <v>128.1168483125289</v>
@@ -4802,22 +4804,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M8" t="n">
-        <v>176.0078249962696</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N8" t="n">
-        <v>692.8507596625949</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O8" t="n">
-        <v>1209.69369432892</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P8" t="n">
         <v>1726.536628995245</v>
@@ -4829,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>1603.135651610684</v>
+        <v>2076.176040113816</v>
       </c>
       <c r="W8" t="n">
-        <v>1603.135651610684</v>
+        <v>1692.415739248985</v>
       </c>
       <c r="X8" t="n">
-        <v>1202.492253779636</v>
+        <v>1291.772341417937</v>
       </c>
       <c r="Y8" t="n">
-        <v>801.5555807277264</v>
+        <v>1291.772341417937</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>52.35970185319792</v>
       </c>
       <c r="K9" t="n">
-        <v>690.384199457534</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="L9" t="n">
-        <v>1207.227134123859</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="M9" t="n">
-        <v>1724.070068790184</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="N9" t="n">
-        <v>1738.409816796119</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="O9" t="n">
-        <v>1738.409816796119</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P9" t="n">
-        <v>1738.409816796119</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>361.3189507308382</v>
+        <v>484.8561672768225</v>
       </c>
       <c r="C10" t="n">
-        <v>361.3189507308382</v>
+        <v>484.8561672768225</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3189507308382</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="E10" t="n">
-        <v>358.622931898602</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="F10" t="n">
-        <v>358.622931898602</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G10" t="n">
-        <v>191.3725408241454</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4990,22 +4992,22 @@
         <v>1384.772214130362</v>
       </c>
       <c r="T10" t="n">
-        <v>1384.772214130362</v>
+        <v>1229.239766185221</v>
       </c>
       <c r="U10" t="n">
-        <v>1101.974066676486</v>
+        <v>946.441618731345</v>
       </c>
       <c r="V10" t="n">
-        <v>828.0883216160082</v>
+        <v>672.5558736708668</v>
       </c>
       <c r="W10" t="n">
-        <v>549.0186571248826</v>
+        <v>672.5558736708668</v>
       </c>
       <c r="X10" t="n">
-        <v>549.0186571248826</v>
+        <v>672.5558736708668</v>
       </c>
       <c r="Y10" t="n">
-        <v>549.0186571248826</v>
+        <v>672.5558736708668</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>557.5915118127089</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C11" t="n">
-        <v>147.466921125979</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D11" t="n">
-        <v>147.466921125979</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E11" t="n">
-        <v>147.466921125979</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>147.466921125979</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G11" t="n">
-        <v>147.466921125979</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H11" t="n">
-        <v>147.466921125979</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I11" t="n">
-        <v>61.11515844305218</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>61.11515844305218</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>599.2746595520917</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>1311.86605936433</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1311.86605936433</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>1882.970367816352</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>2526.601224233457</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>3055.757922152609</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3055.757922152609</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3055.757922152609</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>2920.47684694671</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T11" t="n">
-        <v>2698.270362893569</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U11" t="n">
-        <v>2441.209871153079</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V11" t="n">
-        <v>2091.37231648956</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W11" t="n">
-        <v>1769.392762360156</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X11" t="n">
-        <v>1368.749364529108</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y11" t="n">
-        <v>967.8126914771983</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>739.9460003295865</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>605.9509290785322</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>489.0537712979246</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>368.5609552902527</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>259.6010754727573</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>152.610962787096</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>81.86374982281201</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>61.11515844305218</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>253.9280160056854</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>709.7342722709841</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L12" t="n">
-        <v>709.7342722709841</v>
+        <v>705.4904009953962</v>
       </c>
       <c r="M12" t="n">
-        <v>709.7342722709841</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="N12" t="n">
-        <v>709.7342722709841</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="O12" t="n">
-        <v>1196.053997121039</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P12" t="n">
-        <v>1757.759889609569</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q12" t="n">
-        <v>2107.604354293552</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
-        <v>2107.604354293552</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>1999.614344407861</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1840.272480594869</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1642.921669733088</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1429.210142726122</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1215.97697446245</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1039.650992601343</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>880.2490329651731</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>348.5545767770095</v>
+        <v>767.6394927281183</v>
       </c>
       <c r="C13" t="n">
-        <v>177.461204338726</v>
+        <v>626.3430311245196</v>
       </c>
       <c r="D13" t="n">
-        <v>177.461204338726</v>
+        <v>496.6452972821144</v>
       </c>
       <c r="E13" t="n">
-        <v>177.461204338726</v>
+        <v>365.5313929851186</v>
       </c>
       <c r="F13" t="n">
-        <v>177.461204338726</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="G13" t="n">
-        <v>177.461204338726</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>177.461204338726</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>61.11515844305218</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>75.1977078482627</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K13" t="n">
-        <v>229.7500355705007</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L13" t="n">
-        <v>489.6471358505612</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M13" t="n">
-        <v>778.9111922910545</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N13" t="n">
-        <v>1059.749974685305</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O13" t="n">
-        <v>1319.310585011779</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P13" t="n">
-        <v>1524.986025261391</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q13" t="n">
-        <v>1590.514055063902</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R13" t="n">
-        <v>1590.514055063902</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S13" t="n">
-        <v>1423.856872805787</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T13" t="n">
-        <v>1184.308133782489</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U13" t="n">
-        <v>901.5099863286132</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="V13" t="n">
-        <v>627.6242412681352</v>
+        <v>1190.362885594343</v>
       </c>
       <c r="W13" t="n">
-        <v>348.5545767770095</v>
+        <v>941.0901319379017</v>
       </c>
       <c r="X13" t="n">
-        <v>348.5545767770095</v>
+        <v>925.542288287478</v>
       </c>
       <c r="Y13" t="n">
-        <v>348.5545767770095</v>
+        <v>925.542288287478</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1307.019893803021</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C14" t="n">
-        <v>1168.946471313002</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D14" t="n">
-        <v>1168.946471313002</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E14" t="n">
-        <v>1168.946471313002</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>777.7129701013744</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G14" t="n">
-        <v>398.7815968288914</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H14" t="n">
-        <v>117.6700102912942</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I14" t="n">
-        <v>61.11515844305218</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>61.11515844305218</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>61.11515844305218</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>773.7065582552902</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>1530.006643988061</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>1842.413722126787</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2486.044578543892</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>3015.201276463044</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>3015.201276463044</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3055.757922152609</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>2950.273757781395</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T14" t="n">
-        <v>2950.273757781395</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U14" t="n">
-        <v>2723.010176875589</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V14" t="n">
-        <v>2402.969533046755</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W14" t="n">
-        <v>2049.006143016608</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X14" t="n">
-        <v>1678.159656020246</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y14" t="n">
-        <v>1307.019893803021</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>739.9460003295865</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>605.9509290785322</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>489.0537712979246</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>368.5609552902527</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>259.6010754727573</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>152.610962787096</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>81.86374982281201</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>61.11515844305218</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>61.11515844305218</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>61.11515844305218</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>722.2033303623405</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>1374.087744385028</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N15" t="n">
-        <v>1374.087744385028</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="O15" t="n">
-        <v>2078.044834930922</v>
+        <v>1640.177868931084</v>
       </c>
       <c r="P15" t="n">
-        <v>2078.044834930922</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2078.044834930922</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2107.604354293552</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>1999.614344407861</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1840.272480594869</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1642.921669733088</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1429.210142726122</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1215.97697446245</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1039.650992601343</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>880.2490329651731</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>605.8132196381422</v>
+        <v>379.7015972963597</v>
       </c>
       <c r="C16" t="n">
-        <v>464.5167580345435</v>
+        <v>379.7015972963597</v>
       </c>
       <c r="D16" t="n">
-        <v>464.5167580345435</v>
+        <v>250.0038634539545</v>
       </c>
       <c r="E16" t="n">
-        <v>333.4028537375478</v>
+        <v>250.0038634539545</v>
       </c>
       <c r="F16" t="n">
-        <v>198.5686386828239</v>
+        <v>250.0038634539545</v>
       </c>
       <c r="G16" t="n">
-        <v>61.11515844305218</v>
+        <v>112.5503832141827</v>
       </c>
       <c r="H16" t="n">
-        <v>61.11515844305218</v>
+        <v>112.5503832141827</v>
       </c>
       <c r="I16" t="n">
-        <v>61.11515844305218</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>104.4016601573373</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K16" t="n">
-        <v>288.1579401886499</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L16" t="n">
-        <v>577.2589927777851</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M16" t="n">
-        <v>895.727001527353</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N16" t="n">
-        <v>1205.769736230678</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O16" t="n">
-        <v>1494.534298866227</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P16" t="n">
-        <v>1729.413691424914</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q16" t="n">
-        <v>1824.145673536499</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1824.145673536499</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S16" t="n">
-        <v>1824.145673536499</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T16" t="n">
-        <v>1824.145673536499</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U16" t="n">
-        <v>1571.144436917308</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="V16" t="n">
-        <v>1416.474507936125</v>
+        <v>1190.362885594343</v>
       </c>
       <c r="W16" t="n">
-        <v>1167.201754279684</v>
+        <v>941.0901319379017</v>
       </c>
       <c r="X16" t="n">
-        <v>958.6548029740522</v>
+        <v>732.5431806322698</v>
       </c>
       <c r="Y16" t="n">
-        <v>763.7160151975017</v>
+        <v>537.6043928557193</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5497,16 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D17" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E17" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F17" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G17" t="n">
-        <v>430.9101360764629</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H17" t="n">
         <v>149.7985495388648</v>
@@ -5549,7 +5551,7 @@
         <v>4137.027566035665</v>
       </c>
       <c r="V17" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W17" t="n">
         <v>3463.023532176684</v>
@@ -5595,22 +5597,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L18" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.182536368609</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N18" t="n">
-        <v>1228.182536368609</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O18" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5647,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>340.0789637264444</v>
+        <v>284.6031562365282</v>
       </c>
       <c r="C19" t="n">
-        <v>198.7825021228457</v>
+        <v>224.3576019876185</v>
       </c>
       <c r="D19" t="n">
-        <v>198.7825021228457</v>
+        <v>224.3576019876185</v>
       </c>
       <c r="E19" t="n">
         <v>93.2436976906228</v>
@@ -5674,13 +5676,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K19" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M19" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N19" t="n">
         <v>1237.898275478248</v>
@@ -5695,28 +5697,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R19" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S19" t="n">
-        <v>1699.679355498665</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T19" t="n">
-        <v>1489.927527310052</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U19" t="n">
-        <v>1236.926290690861</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V19" t="n">
-        <v>992.8374564650675</v>
+        <v>937.3616489751514</v>
       </c>
       <c r="W19" t="n">
-        <v>743.5647028086266</v>
+        <v>688.0888953187106</v>
       </c>
       <c r="X19" t="n">
-        <v>535.0177515029949</v>
+        <v>479.5419440130787</v>
       </c>
       <c r="Y19" t="n">
-        <v>340.0789637264444</v>
+        <v>284.6031562365282</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C20" t="n">
         <v>1960.285334281245</v>
       </c>
       <c r="D20" t="n">
-        <v>1585.61831520899</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E20" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F20" t="n">
-        <v>809.8415093489446</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G20" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H20" t="n">
         <v>149.7985495388648</v>
@@ -5750,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5765,7 +5767,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P20" t="n">
         <v>4300.467232046283</v>
@@ -5786,16 +5788,16 @@
         <v>4137.027566035664</v>
       </c>
       <c r="V20" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W20" t="n">
-        <v>3463.023532176682</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X20" t="n">
         <v>3092.17704518032</v>
       </c>
       <c r="Y20" t="n">
-        <v>2721.037282963094</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>299.6033771114704</v>
+        <v>126.7003606771693</v>
       </c>
       <c r="C22" t="n">
-        <v>299.6033771114704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>299.6033771114704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>299.6033771114704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>299.6033771114704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>299.6033771114704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5932,28 +5934,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S22" t="n">
-        <v>1817.10656444305</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T22" t="n">
-        <v>1607.354736254437</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U22" t="n">
-        <v>1354.353499635246</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V22" t="n">
-        <v>1110.264665409453</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W22" t="n">
-        <v>860.9919117530121</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X22" t="n">
-        <v>652.4449604473804</v>
+        <v>479.5419440130794</v>
       </c>
       <c r="Y22" t="n">
-        <v>457.5061726708299</v>
+        <v>284.6031562365289</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C23" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D23" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.61831520899</v>
       </c>
       <c r="E23" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F23" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489446</v>
       </c>
       <c r="G23" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764616</v>
       </c>
       <c r="H23" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674168</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6002,7 +6004,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P23" t="n">
         <v>4300.467232046283</v>
@@ -6017,22 +6019,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T23" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U23" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V23" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206828</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X23" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180319</v>
       </c>
       <c r="Y23" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963094</v>
       </c>
     </row>
     <row r="24">
@@ -6075,19 +6077,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>637.9417588857128</v>
+        <v>357.7756465877517</v>
       </c>
       <c r="C25" t="n">
-        <v>496.6452972821141</v>
+        <v>357.7756465877517</v>
       </c>
       <c r="D25" t="n">
-        <v>496.6452972821141</v>
+        <v>228.0779127453466</v>
       </c>
       <c r="E25" t="n">
-        <v>365.5313929851185</v>
+        <v>228.0779127453466</v>
       </c>
       <c r="F25" t="n">
-        <v>230.6971779303946</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
         <v>93.2436976906228</v>
@@ -6145,22 +6147,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K25" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L25" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M25" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N25" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O25" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P25" t="n">
         <v>1761.542230672484</v>
@@ -6169,28 +6171,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S25" t="n">
-        <v>1856.27421278407</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T25" t="n">
-        <v>1856.27421278407</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U25" t="n">
-        <v>1603.272976164879</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V25" t="n">
-        <v>1448.603047183695</v>
+        <v>937.3616489751525</v>
       </c>
       <c r="W25" t="n">
-        <v>1199.330293527255</v>
+        <v>688.0888953187118</v>
       </c>
       <c r="X25" t="n">
-        <v>990.7833422216229</v>
+        <v>479.5419440130801</v>
       </c>
       <c r="Y25" t="n">
-        <v>795.8445544450724</v>
+        <v>479.5419440130801</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C26" t="n">
         <v>1960.285334281245</v>
@@ -6215,7 +6217,7 @@
         <v>809.8415093489448</v>
       </c>
       <c r="G26" t="n">
-        <v>430.9101360764619</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H26" t="n">
         <v>149.7985495388648</v>
@@ -6251,7 +6253,7 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T26" t="n">
         <v>4364.291146941468</v>
@@ -6260,7 +6262,7 @@
         <v>4137.027566035664</v>
       </c>
       <c r="V26" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W26" t="n">
         <v>3463.023532176683</v>
@@ -6269,7 +6271,7 @@
         <v>3092.17704518032</v>
       </c>
       <c r="Y26" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="27">
@@ -6312,13 +6314,13 @@
         <v>754.331869609911</v>
       </c>
       <c r="M27" t="n">
-        <v>1597.308950304478</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N27" t="n">
-        <v>1597.308950304478</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>767.6394927281179</v>
+        <v>364.2378931366266</v>
       </c>
       <c r="C28" t="n">
-        <v>626.3430311245193</v>
+        <v>222.9414315330279</v>
       </c>
       <c r="D28" t="n">
-        <v>496.6452972821141</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>365.5313929851185</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>230.6971779303946</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
         <v>93.2436976906228</v>
@@ -6409,25 +6411,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S28" t="n">
-        <v>1800.798405294154</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T28" t="n">
-        <v>1800.798405294154</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U28" t="n">
-        <v>1547.797168674963</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V28" t="n">
-        <v>1303.70833444917</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W28" t="n">
-        <v>1054.435580792729</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X28" t="n">
-        <v>962.5782805046684</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="Y28" t="n">
-        <v>767.6394927281179</v>
+        <v>522.1406886959861</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C29" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D29" t="n">
-        <v>1585.61831520899</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E29" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489443</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764616</v>
+        <v>430.910136076463</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6476,7 +6478,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6494,19 +6496,19 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U29" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.023532176682</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X29" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963094</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>674.809389578345</v>
       </c>
       <c r="L30" t="n">
-        <v>754.331869609911</v>
+        <v>674.809389578345</v>
       </c>
       <c r="M30" t="n">
-        <v>754.331869609911</v>
+        <v>674.809389578345</v>
       </c>
       <c r="N30" t="n">
-        <v>1627.989961721529</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>536.296454581765</v>
+        <v>364.2378931366264</v>
       </c>
       <c r="C31" t="n">
-        <v>394.9999929781663</v>
+        <v>222.9414315330279</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3022591357612</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>134.1883548387655</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
         <v>93.2436976906228</v>
@@ -6619,22 +6621,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K31" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L31" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N31" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O31" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P31" t="n">
         <v>1761.542230672484</v>
@@ -6646,25 +6648,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S31" t="n">
-        <v>1800.798405294154</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T31" t="n">
-        <v>1591.046577105541</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U31" t="n">
-        <v>1591.046577105541</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V31" t="n">
-        <v>1346.957742879748</v>
+        <v>937.3616489751525</v>
       </c>
       <c r="W31" t="n">
-        <v>1097.684989223307</v>
+        <v>688.0888953187118</v>
       </c>
       <c r="X31" t="n">
-        <v>889.1380379176751</v>
+        <v>479.5419440130801</v>
       </c>
       <c r="Y31" t="n">
-        <v>694.1992501411246</v>
+        <v>364.2378931366264</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6682,28 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D32" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E32" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F32" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489457</v>
       </c>
       <c r="G32" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764625</v>
       </c>
       <c r="H32" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6713,7 +6715,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P32" t="n">
         <v>4300.467232046283</v>
@@ -6743,7 +6745,7 @@
         <v>3092.17704518032</v>
       </c>
       <c r="Y32" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="33">
@@ -6789,13 +6791,13 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>126.700360677169</v>
+        <v>284.6031562365297</v>
       </c>
       <c r="C34" t="n">
-        <v>93.2436976906228</v>
+        <v>143.3066946329311</v>
       </c>
       <c r="D34" t="n">
-        <v>93.2436976906228</v>
+        <v>143.3066946329311</v>
       </c>
       <c r="E34" t="n">
         <v>93.2436976906228</v>
@@ -6856,22 +6858,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K34" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L34" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M34" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N34" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O34" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P34" t="n">
         <v>1761.542230672484</v>
@@ -6883,25 +6885,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S34" t="n">
-        <v>1644.203548008749</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T34" t="n">
-        <v>1434.451719820136</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U34" t="n">
-        <v>1181.450483200945</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V34" t="n">
-        <v>937.3616489751518</v>
+        <v>937.3616489751525</v>
       </c>
       <c r="W34" t="n">
-        <v>688.0888953187109</v>
+        <v>688.0888953187118</v>
       </c>
       <c r="X34" t="n">
-        <v>479.5419440130791</v>
+        <v>479.5419440130801</v>
       </c>
       <c r="Y34" t="n">
-        <v>284.6031562365286</v>
+        <v>284.6031562365297</v>
       </c>
     </row>
     <row r="35">
@@ -6917,19 +6919,19 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D35" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E35" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F35" t="n">
-        <v>809.8415093489459</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G35" t="n">
-        <v>430.9101360764629</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H35" t="n">
-        <v>149.7985495388658</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -7017,25 +7019,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>256.2636568806545</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>917.3518287999427</v>
       </c>
       <c r="M36" t="n">
-        <v>754.331869609911</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="N36" t="n">
-        <v>874.0699105066985</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O36" t="n">
-        <v>1578.027001052593</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>182.1761681670845</v>
+        <v>284.6031562365289</v>
       </c>
       <c r="C37" t="n">
-        <v>182.1761681670845</v>
+        <v>222.9414315330279</v>
       </c>
       <c r="D37" t="n">
-        <v>182.1761681670845</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>182.1761681670845</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
         <v>93.2436976906228</v>
@@ -7099,7 +7101,7 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L37" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M37" t="n">
         <v>927.8555407749236</v>
@@ -7117,28 +7119,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R37" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S37" t="n">
-        <v>1699.679355498665</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T37" t="n">
-        <v>1489.927527310052</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U37" t="n">
-        <v>1236.92629069086</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V37" t="n">
-        <v>992.8374564650672</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W37" t="n">
-        <v>743.5647028086264</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X37" t="n">
-        <v>535.0177515029945</v>
+        <v>479.5419440130794</v>
       </c>
       <c r="Y37" t="n">
-        <v>340.078963726444</v>
+        <v>284.6031562365289</v>
       </c>
     </row>
     <row r="38">
@@ -7151,19 +7153,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C38" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D38" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E38" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F38" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G38" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H38" t="n">
         <v>149.7985495388648</v>
@@ -7199,13 +7201,13 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T38" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U38" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V38" t="n">
         <v>3816.98692220683</v>
@@ -7257,22 +7259,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>182.1761681670845</v>
+        <v>364.2378931366267</v>
       </c>
       <c r="C40" t="n">
-        <v>182.1761681670845</v>
+        <v>222.941431533028</v>
       </c>
       <c r="D40" t="n">
-        <v>182.1761681670845</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>182.1761681670845</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
         <v>93.2436976906228</v>
@@ -7333,13 +7335,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K40" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L40" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M40" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N40" t="n">
         <v>1237.898275478248</v>
@@ -7354,28 +7356,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R40" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S40" t="n">
-        <v>1699.679355498665</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T40" t="n">
-        <v>1489.927527310052</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U40" t="n">
-        <v>1236.92629069086</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V40" t="n">
-        <v>992.8374564650672</v>
+        <v>937.3616489751514</v>
       </c>
       <c r="W40" t="n">
-        <v>743.5647028086264</v>
+        <v>688.0888953187106</v>
       </c>
       <c r="X40" t="n">
-        <v>535.0177515029945</v>
+        <v>479.5419440130787</v>
       </c>
       <c r="Y40" t="n">
-        <v>340.078963726444</v>
+        <v>364.2378931366267</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2027.372888348123</v>
+        <v>2102.237727455812</v>
       </c>
       <c r="C41" t="n">
-        <v>1647.045208496078</v>
+        <v>1692.113136769082</v>
       </c>
       <c r="D41" t="n">
-        <v>1272.378189423823</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E41" t="n">
-        <v>887.8348847754048</v>
+        <v>873.3089913790391</v>
       </c>
       <c r="F41" t="n">
-        <v>496.6013835637772</v>
+        <v>452.2785793327267</v>
       </c>
       <c r="G41" t="n">
-        <v>117.6700102912942</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>117.6700102912942</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
-        <v>61.11515844305218</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>61.11515844305218</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>61.11515844305218</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>773.7065582552902</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>1530.006643988061</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2283.187660626679</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>2283.187660626679</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>2734.596915357317</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3055.757922152609</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3055.757922152609</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3055.757922152609</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>3055.757922152609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>3055.757922152609</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>2735.717278323774</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>2735.717278323774</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>2407.797157177928</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>2407.797157177928</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>739.9460003295865</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C42" t="n">
-        <v>605.9509290785322</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D42" t="n">
-        <v>489.0537712979246</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E42" t="n">
-        <v>368.5609552902527</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F42" t="n">
-        <v>259.6010754727573</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G42" t="n">
-        <v>152.610962787096</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H42" t="n">
-        <v>81.86374982281201</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I42" t="n">
-        <v>61.11515844305218</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J42" t="n">
-        <v>253.9280160056854</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K42" t="n">
-        <v>709.7342722709841</v>
+        <v>3071.501944945938</v>
       </c>
       <c r="L42" t="n">
-        <v>1370.822444190272</v>
+        <v>3732.590116865226</v>
       </c>
       <c r="M42" t="n">
-        <v>1728.200370246939</v>
+        <v>3732.590116865226</v>
       </c>
       <c r="N42" t="n">
-        <v>1728.200370246939</v>
+        <v>4100.47899204261</v>
       </c>
       <c r="O42" t="n">
-        <v>1728.200370246939</v>
+        <v>4100.47899204261</v>
       </c>
       <c r="P42" t="n">
-        <v>1728.200370246939</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q42" t="n">
-        <v>2078.044834930922</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R42" t="n">
-        <v>2107.604354293552</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S42" t="n">
-        <v>1999.614344407861</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T42" t="n">
-        <v>1840.272480594869</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U42" t="n">
-        <v>1642.921669733088</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V42" t="n">
-        <v>1429.210142726122</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W42" t="n">
-        <v>1215.97697446245</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X42" t="n">
-        <v>1039.650992601343</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y42" t="n">
-        <v>880.2490329651731</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>812.1728990589899</v>
+        <v>3901.419010578599</v>
       </c>
       <c r="C43" t="n">
-        <v>670.8764374553912</v>
+        <v>3901.419010578599</v>
       </c>
       <c r="D43" t="n">
-        <v>670.8764374553912</v>
+        <v>3741.924365901509</v>
       </c>
       <c r="E43" t="n">
-        <v>539.7625331583954</v>
+        <v>3581.013550769829</v>
       </c>
       <c r="F43" t="n">
-        <v>404.9283181036715</v>
+        <v>3416.38242488042</v>
       </c>
       <c r="G43" t="n">
-        <v>267.4748378638997</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="H43" t="n">
-        <v>147.6642935040412</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I43" t="n">
-        <v>61.11515844305218</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J43" t="n">
-        <v>104.4016601573373</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K43" t="n">
-        <v>288.1579401886498</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L43" t="n">
-        <v>577.258992777785</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M43" t="n">
-        <v>895.727001527353</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N43" t="n">
-        <v>1205.769736230678</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O43" t="n">
-        <v>1494.534298866227</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P43" t="n">
-        <v>1729.413691424914</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q43" t="n">
-        <v>1824.145673536499</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R43" t="n">
-        <v>1824.145673536499</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S43" t="n">
-        <v>1667.550816251094</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="T43" t="n">
-        <v>1667.550816251094</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="U43" t="n">
-        <v>1414.549579631903</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="V43" t="n">
-        <v>1414.549579631903</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="W43" t="n">
-        <v>1165.276825975462</v>
+        <v>4297.842501715413</v>
       </c>
       <c r="X43" t="n">
-        <v>1007.11168683554</v>
+        <v>4297.842501715413</v>
       </c>
       <c r="Y43" t="n">
-        <v>812.1728990589899</v>
+        <v>4089.118716972644</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1606.246281875754</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C44" t="n">
-        <v>1606.246281875754</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D44" t="n">
-        <v>1201.782351968815</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E44" t="n">
-        <v>1201.782351968815</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>780.7519399225021</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>372.0236558153342</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>61.11515844305218</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>61.11515844305218</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>315.3006299108065</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>853.460131019846</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1566.051530832084</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>2164.8835717486</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2164.8835717486</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2164.8835717486</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>2694.040269667752</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3015.201276463044</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3055.757922152609</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3055.757922152609</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>2833.551438099468</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>2576.490946358978</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>2576.490946358978</v>
+        <v>3730.41272590526</v>
       </c>
       <c r="W44" t="n">
-        <v>2417.110859371291</v>
+        <v>3346.652425040428</v>
       </c>
       <c r="X44" t="n">
-        <v>2016.467461540243</v>
+        <v>2946.009027209381</v>
       </c>
       <c r="Y44" t="n">
-        <v>2016.467461540243</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>739.9460003295865</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C45" t="n">
-        <v>605.9509290785322</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D45" t="n">
-        <v>489.0537712979246</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E45" t="n">
-        <v>368.5609552902527</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F45" t="n">
-        <v>259.6010754727573</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G45" t="n">
-        <v>152.610962787096</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H45" t="n">
-        <v>81.86374982281201</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I45" t="n">
-        <v>61.11515844305218</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J45" t="n">
-        <v>61.11515844305218</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K45" t="n">
-        <v>128.5102041529633</v>
+        <v>3071.501944945938</v>
       </c>
       <c r="L45" t="n">
-        <v>789.5983760722515</v>
+        <v>3071.501944945938</v>
       </c>
       <c r="M45" t="n">
-        <v>1545.898461805022</v>
+        <v>3914.479025640505</v>
       </c>
       <c r="N45" t="n">
-        <v>1545.898461805022</v>
+        <v>3914.479025640505</v>
       </c>
       <c r="O45" t="n">
-        <v>1545.898461805022</v>
+        <v>4618.436116186399</v>
       </c>
       <c r="P45" t="n">
-        <v>2107.604354293552</v>
+        <v>4632.62536516851</v>
       </c>
       <c r="Q45" t="n">
-        <v>2107.604354293552</v>
+        <v>4632.62536516851</v>
       </c>
       <c r="R45" t="n">
-        <v>2107.604354293552</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S45" t="n">
-        <v>1999.614344407861</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T45" t="n">
-        <v>1840.272480594869</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U45" t="n">
-        <v>1642.921669733088</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V45" t="n">
-        <v>1429.210142726122</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W45" t="n">
-        <v>1215.97697446245</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X45" t="n">
-        <v>1039.650992601343</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y45" t="n">
-        <v>880.2490329651731</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>103.9812309128266</v>
+        <v>3306.395445751029</v>
       </c>
       <c r="C46" t="n">
-        <v>61.11515844305218</v>
+        <v>3297.417113799698</v>
       </c>
       <c r="D46" t="n">
-        <v>61.11515844305218</v>
+        <v>3297.417113799698</v>
       </c>
       <c r="E46" t="n">
-        <v>61.11515844305218</v>
+        <v>3297.417113799698</v>
       </c>
       <c r="F46" t="n">
-        <v>61.11515844305218</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G46" t="n">
-        <v>61.11515844305218</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H46" t="n">
-        <v>61.11515844305218</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I46" t="n">
-        <v>61.11515844305218</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J46" t="n">
-        <v>75.1977078482627</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K46" t="n">
-        <v>229.7500355705007</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L46" t="n">
-        <v>489.6471358505612</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M46" t="n">
-        <v>778.9111922910545</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N46" t="n">
-        <v>1059.749974685305</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O46" t="n">
-        <v>1319.310585011779</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P46" t="n">
-        <v>1524.986025261391</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q46" t="n">
-        <v>1590.514055063902</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R46" t="n">
-        <v>1590.514055063902</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S46" t="n">
-        <v>1590.514055063902</v>
+        <v>4475.79311641105</v>
       </c>
       <c r="T46" t="n">
-        <v>1590.514055063902</v>
+        <v>4236.244377387751</v>
       </c>
       <c r="U46" t="n">
-        <v>1307.715907610027</v>
+        <v>4236.244377387751</v>
       </c>
       <c r="V46" t="n">
-        <v>1033.830162549549</v>
+        <v>4236.244377387751</v>
       </c>
       <c r="W46" t="n">
-        <v>754.7604980584229</v>
+        <v>3957.174712896625</v>
       </c>
       <c r="X46" t="n">
-        <v>516.4166359181063</v>
+        <v>3718.830850756309</v>
       </c>
       <c r="Y46" t="n">
-        <v>291.680937306871</v>
+        <v>3494.095152145073</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>549.1401736751965</v>
+        <v>516.2162236769907</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>349.0360827441916</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>520.7291972846577</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,28 +8060,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>112.271618764011</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>483.1943578146227</v>
       </c>
       <c r="M3" t="n">
-        <v>175.2980289959033</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>484.8313130037736</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>481.3394690065774</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8219,22 +8221,22 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>272.0504334731807</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8292,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>498.2302468367834</v>
+        <v>93.75312630912974</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>228.888951090043</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8529,7 +8531,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>62.07087134908675</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
@@ -8538,22 +8540,22 @@
         <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>67.6779873391382</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8696,10 +8698,10 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>669.785329597046</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
@@ -8708,10 +8710,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,28 +8771,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>479.785075065536</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>548.9835243030855</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>857.2297049951977</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>408.4749959472522</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
@@ -8945,7 +8947,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9009,10 +9011,10 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>716.0333888118391</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
@@ -9021,13 +9023,13 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>558.8606699624394</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9182,7 +9184,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9243,25 +9245,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>536.2013208684158</v>
+        <v>285.4811293141939</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9404,7 +9406,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L20" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M20" t="n">
         <v>877.4504173780091</v>
@@ -9477,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>266.54231935717</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
         <v>632.7318453389136</v>
@@ -9723,22 +9725,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>557.7944283533855</v>
+        <v>812.0486393063214</v>
       </c>
       <c r="O24" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9960,16 +9962,16 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>889.5795680239546</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10188,13 +10190,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>448.5054134160184</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
@@ -10203,16 +10205,16 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>574.6635313430244</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10437,16 +10439,16 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>352.6623456499191</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10665,28 +10667,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>220.4924082290918</v>
       </c>
       <c r="L36" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>174.1409094511112</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10835,7 +10837,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O38" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248791</v>
       </c>
       <c r="P38" t="n">
         <v>628.1510783507341</v>
@@ -10905,25 +10907,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>506.3432205021228</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>857.2297049951977</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
         <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>549.618307453246</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
@@ -11145,22 +11147,22 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>418.5520878360603</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>424.7983178153498</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,13 +11305,13 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>698.1710738676679</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
@@ -11376,28 +11378,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>123.9015865320004</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>821.5037642765697</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>68.59220973220897</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23261,19 +23263,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>61.16293926807333</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>19.53724000335458</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>191.069116578656</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="14">
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376.6200261415066</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>239.8317147884061</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>370.920348881532</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>380.6978716019343</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23546,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>190.4854774862718</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D16" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>118.6124389162599</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037913</v>
+        <v>66.57002504205488</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501637</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V16" t="n">
-        <v>88.52471619216396</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>156.323767603766</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>80.24039828114215</v>
       </c>
       <c r="D19" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>25.31934886612504</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G19" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6124389162599</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037913</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501637</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875627</v>
+        <v>106.7614006308816</v>
       </c>
       <c r="D22" t="n">
         <v>128.4007565039811</v>
@@ -24142,10 +24144,10 @@
         <v>136.078945437374</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501637</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>116.2529368549414</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>35.7751331526908</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D25" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037913</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501637</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>88.52471619216396</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H28" t="n">
         <v>118.6124389162599</v>
@@ -24649,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>115.5227545073954</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>28.70067534228718</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F31" t="n">
-        <v>92.95066232751546</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G31" t="n">
         <v>136.078945437374</v>
@@ -24856,7 +24858,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
-        <v>85.68364371037913</v>
+        <v>85.68364371037906</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>78.8383895310958</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C34" t="n">
-        <v>106.7614006308819</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>128.4007565039811</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E34" t="n">
-        <v>129.8027652540258</v>
+        <v>80.24039828114047</v>
       </c>
       <c r="F34" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G34" t="n">
         <v>136.078945437374</v>
@@ -25093,7 +25095,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>85.68364371037913</v>
+        <v>85.68364371037906</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C37" t="n">
-        <v>139.8834969875627</v>
+        <v>78.83838953109671</v>
       </c>
       <c r="D37" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>129.8027652540258</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F37" t="n">
-        <v>45.44272713247965</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G37" t="n">
         <v>136.078945437374</v>
@@ -25330,7 +25332,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I37" t="n">
-        <v>85.68364371037913</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501637</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C40" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>129.8027652540258</v>
       </c>
       <c r="F40" t="n">
-        <v>45.44272713247965</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G40" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H40" t="n">
-        <v>118.6124389162599</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I40" t="n">
-        <v>85.68364371037913</v>
+        <v>85.68364371037917</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501637</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>78.83838953109749</v>
       </c>
     </row>
     <row r="41">
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>356.9958808389724</v>
       </c>
       <c r="H41" t="n">
-        <v>278.3004706722212</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609751</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>104.4293227275022</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>190.4854774862718</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>224.990945096747</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>350.4237561298451</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>42.4971021920108</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>367.4283645950528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>54.92104941501637</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>207.654309906727</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>241.6479458835353</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>49.87799404405274</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>15.85179472978106</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>32.28731256679816</v>
       </c>
       <c r="W44" t="n">
-        <v>222.1364117383732</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>126.945026968824</v>
+        <v>160.4938900820832</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -26032,7 +26034,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
@@ -26071,16 +26073,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>663631.5150120368</v>
+        <v>654454.7428747042</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>502214.6655714642</v>
+        <v>686075.9435876864</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>549105.0411406277</v>
+        <v>686075.9435876864</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>686075.9435876864</v>
+        <v>686075.9435876866</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>686075.9435876864</v>
+        <v>686075.9435876866</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>686075.9435876864</v>
+        <v>686075.9435876866</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>549105.0411406279</v>
+        <v>639185.5680185233</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>502214.6655714646</v>
+        <v>639185.5680185233</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553800.1363103539</v>
+        <v>553800.1363103536</v>
       </c>
       <c r="C2" t="n">
-        <v>553800.1363103536</v>
+        <v>553800.1363103535</v>
       </c>
       <c r="D2" t="n">
-        <v>553800.1363103536</v>
+        <v>553800.1363103535</v>
       </c>
       <c r="E2" t="n">
-        <v>386950.8738137091</v>
+        <v>536688.0895138683</v>
       </c>
       <c r="F2" t="n">
-        <v>431236.2285179181</v>
+        <v>536688.0895138687</v>
       </c>
       <c r="G2" t="n">
-        <v>536688.0895138688</v>
+        <v>536688.0895138683</v>
       </c>
       <c r="H2" t="n">
         <v>536688.0895138683</v>
       </c>
       <c r="I2" t="n">
-        <v>536688.0895138681</v>
+        <v>536688.0895138694</v>
       </c>
       <c r="J2" t="n">
-        <v>536688.0895138682</v>
+        <v>536688.0895138684</v>
       </c>
       <c r="K2" t="n">
-        <v>536688.0895138683</v>
+        <v>536688.0895138691</v>
       </c>
       <c r="L2" t="n">
+        <v>536688.0895138693</v>
+      </c>
+      <c r="M2" t="n">
+        <v>536688.0895138687</v>
+      </c>
+      <c r="N2" t="n">
         <v>536688.0895138686</v>
       </c>
-      <c r="M2" t="n">
-        <v>536688.0895138688</v>
-      </c>
-      <c r="N2" t="n">
-        <v>536688.0895138688</v>
-      </c>
       <c r="O2" t="n">
-        <v>431236.2285179181</v>
+        <v>492402.7348096593</v>
       </c>
       <c r="P2" t="n">
-        <v>386950.8738137092</v>
+        <v>492402.7348096592</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931141</v>
+        <v>143124.2752108466</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>30686.46086668816</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>72218.82550617891</v>
+        <v>215728.9162805135</v>
       </c>
       <c r="F3" t="n">
-        <v>23599.1533810704</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>110074.3834958799</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.800805895</v>
+        <v>135342.0294691536</v>
       </c>
       <c r="K3" t="n">
-        <v>23599.15338107038</v>
+        <v>24445.77426110957</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>60276.44431753783</v>
+        <v>160358.4505006827</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>248795.5093150309</v>
+      </c>
+      <c r="C4" t="n">
         <v>232373.2713033891</v>
-      </c>
-      <c r="C4" t="n">
-        <v>232373.271303389</v>
       </c>
       <c r="D4" t="n">
         <v>232373.2713033891</v>
       </c>
       <c r="E4" t="n">
-        <v>93050.23365017938</v>
+        <v>148366.1238023682</v>
       </c>
       <c r="F4" t="n">
-        <v>122860.2630670483</v>
+        <v>148366.1238023682</v>
       </c>
       <c r="G4" t="n">
         <v>148366.1238023682</v>
@@ -26436,16 +26438,16 @@
         <v>148366.1238023682</v>
       </c>
       <c r="I4" t="n">
-        <v>148366.1238023682</v>
+        <v>148366.1238023683</v>
       </c>
       <c r="J4" t="n">
         <v>148366.1238023682</v>
       </c>
       <c r="K4" t="n">
-        <v>148366.1238023682</v>
+        <v>148366.1238023683</v>
       </c>
       <c r="L4" t="n">
-        <v>148366.1238023682</v>
+        <v>148366.1238023683</v>
       </c>
       <c r="M4" t="n">
         <v>148366.1238023682</v>
@@ -26454,10 +26456,10 @@
         <v>148366.1238023682</v>
       </c>
       <c r="O4" t="n">
-        <v>122860.2630670483</v>
+        <v>118556.0943854994</v>
       </c>
       <c r="P4" t="n">
-        <v>93050.23365017938</v>
+        <v>118556.0943854993</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849755</v>
+        <v>59594.05390742944</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26476,10 +26478,10 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>46447.52041671965</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="F5" t="n">
-        <v>48927.46694871116</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="G5" t="n">
         <v>73345.15677686482</v>
@@ -26488,16 +26490,16 @@
         <v>73345.15677686482</v>
       </c>
       <c r="I5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="J5" t="n">
         <v>73345.15677686482</v>
       </c>
       <c r="K5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="L5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="M5" t="n">
         <v>73345.15677686482</v>
@@ -26506,10 +26508,10 @@
         <v>73345.15677686482</v>
       </c>
       <c r="O5" t="n">
-        <v>48927.46694871115</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>46447.52041671965</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81102.29003535316</v>
+        <v>102286.2978770467</v>
       </c>
       <c r="C6" t="n">
-        <v>256057.7999284671</v>
+        <v>225371.3390617787</v>
       </c>
       <c r="D6" t="n">
-        <v>256057.799928467</v>
+        <v>256057.7999284669</v>
       </c>
       <c r="E6" t="n">
-        <v>175234.2942406312</v>
+        <v>99247.89265412181</v>
       </c>
       <c r="F6" t="n">
-        <v>235849.3451210883</v>
+        <v>314976.8089346357</v>
       </c>
       <c r="G6" t="n">
-        <v>204902.4254387558</v>
+        <v>314976.8089346354</v>
       </c>
       <c r="H6" t="n">
-        <v>314976.8089346353</v>
+        <v>314976.8089346352</v>
       </c>
       <c r="I6" t="n">
-        <v>314976.8089346351</v>
+        <v>314976.8089346362</v>
       </c>
       <c r="J6" t="n">
-        <v>178382.0081287401</v>
+        <v>179634.7794654818</v>
       </c>
       <c r="K6" t="n">
-        <v>291377.655553565</v>
+        <v>290531.0346735264</v>
       </c>
       <c r="L6" t="n">
+        <v>314976.8089346362</v>
+      </c>
+      <c r="M6" t="n">
+        <v>154618.3584339529</v>
+      </c>
+      <c r="N6" t="n">
         <v>314976.8089346355</v>
       </c>
-      <c r="M6" t="n">
-        <v>254700.3646170979</v>
-      </c>
-      <c r="N6" t="n">
-        <v>314976.8089346358</v>
-      </c>
       <c r="O6" t="n">
-        <v>259448.4985021587</v>
+        <v>302981.4301792866</v>
       </c>
       <c r="P6" t="n">
-        <v>247453.1197468101</v>
+        <v>302981.4301792866</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26694,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H2" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I2" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J2" t="n">
         <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N2" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037736</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26796,10 +26798,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>763.9394805381522</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>763.9394805381522</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>763.9394805381522</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>763.9394805381522</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F2" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>29.49894172633788</v>
       </c>
       <c r="K2" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037736</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>94.98373636625195</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>241.8759101681266</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>401.6067405946327</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037736</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>94.98373636625195</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>241.8759101681266</v>
+        <v>643.4826507627595</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K2" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>29.49894172633788</v>
       </c>
       <c r="P2" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037736</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>94.98373636625195</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>241.8759101681266</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>401.6067405946327</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>174.0487912795717</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>118.1095172892893</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27467,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27521,10 +27523,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>102.9346630310218</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="4">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>93.78622388813001</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>19.10615505383083</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -27594,16 +27596,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>215.0296452739832</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>246.5667269783112</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27636,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27783,16 +27785,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,16 +27830,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>241.175339843109</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>133.8035734848423</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>177.5151806847493</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -27910,16 +27912,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>334.381720164261</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28016,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>156.6326483364499</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
@@ -28026,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>83.17612816737508</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.49894172633798</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633798</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="26">
@@ -29509,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C32" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D32" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E32" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F32" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G32" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H32" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I32" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T32" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U32" t="n">
-        <v>29.49894172633745</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V32" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W32" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X32" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.49894172633797</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.49894172633797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>460.0037840019794</v>
+        <v>427.0798340037736</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>255.7458582871461</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>427.0798340037736</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,28 +34780,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>56.44583597939556</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>427.0798340037736</v>
       </c>
       <c r="M3" t="n">
-        <v>117.7337452574859</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037736</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037736</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34939,22 +34941,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>176.5650354103359</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>445.0368534430334</v>
+        <v>40.55973291537975</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>135.5987266329975</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>10.70163254908674</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
@@ -35258,22 +35260,22 @@
         <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N9" t="n">
-        <v>14.48459394538821</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35416,10 +35418,10 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>576.8730388404267</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
@@ -35428,10 +35430,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>423.670551254687</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>491.2320453030855</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>14.22479737900053</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K13" t="n">
-        <v>156.1134623456949</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L13" t="n">
-        <v>262.5223235152127</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M13" t="n">
-        <v>292.1859155964578</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N13" t="n">
-        <v>283.67553777197</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O13" t="n">
-        <v>262.1824346732062</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P13" t="n">
-        <v>207.7529699491034</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.18992909344529</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>763.9394805381522</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>315.5627051906329</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
@@ -35665,7 +35667,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35729,10 +35731,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>658.4691050734217</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35741,13 +35743,13 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>504.6010349596356</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533851</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L16" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M16" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N16" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P16" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35904,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>478.6370371299984</v>
+        <v>227.9168455757764</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533851</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L19" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M19" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N19" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O19" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P19" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,7 +36126,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L20" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M20" t="n">
         <v>784.1601929209636</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533851</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K22" t="n">
         <v>185.6124040720329</v>
@@ -36297,7 +36299,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
         <v>543.5954556656965</v>
@@ -36443,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>504.6010349596355</v>
+        <v>758.8552459125715</v>
       </c>
       <c r="O24" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533851</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K25" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L25" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M25" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N25" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O25" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P25" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36680,16 +36682,16 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>832.0152842855372</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>392.679630631403</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,16 +36925,16 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>516.9120523430244</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K31" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L31" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M31" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N31" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O31" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P31" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978333</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37157,16 +37159,16 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>294.9108666499191</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K34" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L34" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M34" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N34" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O34" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P34" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978333</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>164.6666254444764</v>
       </c>
       <c r="L36" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>120.9475160573612</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K37" t="n">
         <v>185.6124040720329</v>
@@ -37482,7 +37484,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O38" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P38" t="n">
         <v>534.50171506985</v>
@@ -37625,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>448.7789367637054</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.7237391053385</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K40" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L40" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M40" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N40" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O40" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P40" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.68887081978326</v>
+        <v>95.68887081978322</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>763.9394805381522</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
         <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>455.9689441723618</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
@@ -37865,22 +37867,22 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>360.9878040976428</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>371.6049244215998</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>43.7237391053385</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K43" t="n">
-        <v>185.6124040720329</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L43" t="n">
-        <v>292.0212652415507</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M43" t="n">
-        <v>321.6848573227958</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N43" t="n">
-        <v>313.174479498308</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O43" t="n">
-        <v>291.6813763995442</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P43" t="n">
-        <v>237.2519116754414</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q43" t="n">
-        <v>95.68887081978326</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,13 +38025,13 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>604.8808494106224</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
@@ -38096,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>68.07580374738497</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>763.9394805381522</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>14.33257472940522</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2016615.869752917</v>
+        <v>2015889.270881694</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864456.6793124477</v>
+        <v>864456.6793124469</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7803987.788751866</v>
+        <v>7803987.788751865</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>167.4990185083017</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>278.5274465634477</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
         <v>105.9202115588047</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>91.42297362470845</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
@@ -803,10 +803,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>71.62805901147433</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +822,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>65.20688881505556</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
@@ -831,13 +831,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>165.421695385058</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>348.4271941735153</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>163.6300863499611</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -977,10 +977,10 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
-        <v>132.6551205385437</v>
+        <v>132.6551205385439</v>
       </c>
       <c r="D6" t="n">
-        <v>115.7281862028016</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
         <v>119.2878878475953</v>
@@ -1056,22 +1056,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>38.7948261362281</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>223.6938263603639</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>111.0165984038088</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
         <v>10.19681332827224</v>
@@ -1147,13 +1147,13 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>11.9574589526231</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1293,25 +1293,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>53.43613966065046</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>153.9771234656898</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,22 +1375,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D11" t="n">
-        <v>370.9203488815321</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E11" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F11" t="n">
-        <v>387.3211661995114</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G11" t="n">
-        <v>375.1420595397582</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722213</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975964</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275031</v>
       </c>
       <c r="T11" t="n">
         <v>190.4854774862718</v>
       </c>
       <c r="U11" t="n">
-        <v>224.9909450967471</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V11" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W11" t="n">
-        <v>350.4237561298452</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X11" t="n">
-        <v>367.1380221263987</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y11" t="n">
-        <v>367.4283645950529</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="12">
@@ -1530,19 +1530,19 @@
         <v>156.323767603766</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G13" t="n">
-        <v>136.0789454373741</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501641</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125509</v>
+        <v>119.2537755598591</v>
       </c>
       <c r="T13" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
         <v>241.6479458835353</v>
@@ -1593,7 +1593,7 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X13" t="n">
-        <v>15.39236521391948</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D14" t="n">
-        <v>370.9203488815321</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E14" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F14" t="n">
-        <v>387.3211661995114</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G14" t="n">
-        <v>375.1420595397582</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722213</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975964</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U14" t="n">
-        <v>224.9909450967471</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V14" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W14" t="n">
-        <v>350.4237561298452</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X14" t="n">
-        <v>367.1380221263991</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y14" t="n">
-        <v>367.4283645950529</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="15">
@@ -1767,25 +1767,25 @@
         <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D16" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>136.0789454373741</v>
+        <v>34.485959302472</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>19.11361866832429</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501641</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T16" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V16" t="n">
         <v>241.6479458835353</v>
@@ -1830,10 +1830,10 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X16" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.989399898785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C17" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D17" t="n">
-        <v>370.9203488815321</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E17" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F17" t="n">
-        <v>387.3211661995114</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G17" t="n">
-        <v>375.1420595397582</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722213</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975964</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>104.4293227275022</v>
+        <v>104.429322727504</v>
       </c>
       <c r="T17" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U17" t="n">
-        <v>224.9909450967471</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V17" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W17" t="n">
-        <v>350.4237561298452</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X17" t="n">
-        <v>367.1380221263991</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y17" t="n">
-        <v>367.4283645950529</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="18">
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C19" t="n">
-        <v>59.64309870642058</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>88.04314577169825</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501641</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T19" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U19" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V19" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W19" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X19" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C20" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D20" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E20" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F20" t="n">
         <v>387.3211661995113</v>
@@ -2098,10 +2098,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H20" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332976153</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T20" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U20" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V20" t="n">
         <v>316.8402373905461</v>
@@ -2146,7 +2146,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X20" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y20" t="n">
         <v>367.4283645950528</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C22" t="n">
-        <v>33.12209635668106</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>33.12209635668189</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S22" t="n">
         <v>155.0289087125508</v>
@@ -2295,16 +2295,16 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U22" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V22" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W22" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X22" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y22" t="n">
         <v>192.9893998987849</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.5486344510751</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,16 +2484,16 @@
         <v>128.400756503981</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>54.92104941501629</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>207.6543099067269</v>
@@ -2535,7 +2535,7 @@
         <v>250.471224252999</v>
       </c>
       <c r="V25" t="n">
-        <v>241.6479458835352</v>
+        <v>209.3067578822674</v>
       </c>
       <c r="W25" t="n">
         <v>246.7800261198763</v>
@@ -2544,7 +2544,7 @@
         <v>206.4614817925754</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C26" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D26" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815319</v>
       </c>
       <c r="E26" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019341</v>
       </c>
       <c r="F26" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995112</v>
       </c>
       <c r="G26" t="n">
-        <v>375.1420595397581</v>
+        <v>375.142059539758</v>
       </c>
       <c r="H26" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332976098</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>104.4293227275022</v>
+        <v>104.429322727502</v>
       </c>
       <c r="T26" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U26" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V26" t="n">
-        <v>316.8402373905461</v>
+        <v>316.840237390546</v>
       </c>
       <c r="W26" t="n">
-        <v>350.4237561298451</v>
+        <v>350.423756129845</v>
       </c>
       <c r="X26" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y26" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950527</v>
       </c>
     </row>
     <row r="27">
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037658</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>129.8027652540256</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>136.0789454373739</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>207.6543099067269</v>
+        <v>207.6543099067268</v>
       </c>
       <c r="U28" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V28" t="n">
-        <v>241.6479458835353</v>
+        <v>78.95479268882316</v>
       </c>
       <c r="W28" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>206.4614817925753</v>
       </c>
       <c r="Y28" t="n">
-        <v>164.2887245564978</v>
+        <v>192.9893998987848</v>
       </c>
     </row>
     <row r="29">
@@ -2797,22 +2797,22 @@
         <v>376.5244030535245</v>
       </c>
       <c r="D29" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815319</v>
       </c>
       <c r="E29" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019341</v>
       </c>
       <c r="F29" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995112</v>
       </c>
       <c r="G29" t="n">
-        <v>375.1420595397581</v>
+        <v>375.142059539758</v>
       </c>
       <c r="H29" t="n">
-        <v>278.3004706722223</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975952</v>
+        <v>55.98930332976098</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>104.4293227275021</v>
+        <v>104.429322727502</v>
       </c>
       <c r="T29" t="n">
         <v>190.4854774862717</v>
@@ -2851,16 +2851,16 @@
         <v>224.9909450967469</v>
       </c>
       <c r="V29" t="n">
-        <v>316.8402373905461</v>
+        <v>316.840237390546</v>
       </c>
       <c r="W29" t="n">
-        <v>350.4237561298451</v>
+        <v>350.423756129845</v>
       </c>
       <c r="X29" t="n">
         <v>367.1380221263989</v>
       </c>
       <c r="Y29" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950527</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>156.3237676037658</v>
       </c>
       <c r="C31" t="n">
         <v>139.8834969875626</v>
@@ -2958,7 +2958,7 @@
         <v>128.400756503981</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>129.8027652540256</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.9210494150163</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>207.6543099067269</v>
+        <v>52.63934564540765</v>
       </c>
       <c r="U31" t="n">
         <v>250.471224252999</v>
@@ -3015,10 +3015,10 @@
         <v>246.7800261198763</v>
       </c>
       <c r="X31" t="n">
-        <v>206.4614817925754</v>
+        <v>206.4614817925753</v>
       </c>
       <c r="Y31" t="n">
-        <v>114.1510103676891</v>
+        <v>192.9893998987848</v>
       </c>
     </row>
     <row r="32">
@@ -3082,7 +3082,7 @@
         <v>104.4293227275021</v>
       </c>
       <c r="T32" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862732</v>
       </c>
       <c r="U32" t="n">
         <v>224.9909450967469</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C34" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>49.5623669728852</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>33.12209635668191</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.9210494150163</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S34" t="n">
         <v>155.0289087125508</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C35" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D35" t="n">
-        <v>370.9203488815327</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E35" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F35" t="n">
         <v>387.3211661995113</v>
@@ -3283,10 +3283,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H35" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T35" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U35" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V35" t="n">
         <v>316.8402373905461</v>
@@ -3331,7 +3331,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X35" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y35" t="n">
         <v>367.4283645950528</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>61.04510745646595</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>128.4007565039811</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>155.0289087125508</v>
       </c>
       <c r="T37" t="n">
-        <v>207.6543099067269</v>
+        <v>190.1345938740334</v>
       </c>
       <c r="U37" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V37" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W37" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X37" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y37" t="n">
         <v>192.9893998987849</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C38" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D38" t="n">
-        <v>370.9203488815321</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E38" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F38" t="n">
-        <v>387.3211661995107</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G38" t="n">
-        <v>375.1420595397582</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H38" t="n">
-        <v>278.3004706722213</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I38" t="n">
-        <v>55.98930332975964</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T38" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862732</v>
       </c>
       <c r="U38" t="n">
-        <v>224.9909450967471</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V38" t="n">
-        <v>316.8402373905462</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W38" t="n">
-        <v>350.4237561298452</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X38" t="n">
-        <v>367.1380221263991</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y38" t="n">
-        <v>367.4283645950529</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="39">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C40" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501641</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S40" t="n">
-        <v>155.0289087125509</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T40" t="n">
-        <v>207.654309906727</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U40" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V40" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W40" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X40" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y40" t="n">
-        <v>114.1510103676875</v>
+        <v>140.4278525450877</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678445</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798625</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3751,16 +3751,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258492</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>47.64512042712371</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985591</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126097</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.4898868230849</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.922697856183</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.6369638527369</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213907</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3900,25 +3900,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>238.4513480673457</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>206.6365468953419</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3985,10 +3985,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>59.82422708687632</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>314.0518665500859</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4137,7 +4137,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>8.888548631817493</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>41.24458363092516</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.65179874853447</v>
+        <v>967.0843695122695</v>
       </c>
       <c r="C2" t="n">
-        <v>66.56761210220866</v>
+        <v>556.9597788255396</v>
       </c>
       <c r="D2" t="n">
-        <v>66.14408623567326</v>
+        <v>152.4958489186001</v>
       </c>
       <c r="E2" t="n">
-        <v>55.84427479297402</v>
+        <v>142.1960374759009</v>
       </c>
       <c r="F2" t="n">
-        <v>38.85426678706563</v>
+        <v>125.2060294699925</v>
       </c>
       <c r="G2" t="n">
-        <v>34.16638672030189</v>
+        <v>120.5181494032287</v>
       </c>
       <c r="H2" t="n">
-        <v>34.16638672030189</v>
+        <v>120.5181494032287</v>
       </c>
       <c r="I2" t="n">
-        <v>34.16638672030189</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="J2" t="n">
         <v>288.3518581880562</v>
       </c>
       <c r="K2" t="n">
-        <v>711.160893851792</v>
+        <v>288.3518581880562</v>
       </c>
       <c r="L2" t="n">
-        <v>711.160893851792</v>
+        <v>288.3518581880562</v>
       </c>
       <c r="M2" t="n">
-        <v>964.3492935560666</v>
+        <v>711.1608938517918</v>
       </c>
       <c r="N2" t="n">
-        <v>964.3492935560666</v>
+        <v>822.1446189980572</v>
       </c>
       <c r="O2" t="n">
-        <v>964.3492935560666</v>
+        <v>1244.953654661793</v>
       </c>
       <c r="P2" t="n">
-        <v>1387.158329219802</v>
+        <v>1667.762690325528</v>
       </c>
       <c r="Q2" t="n">
-        <v>1708.319336015094</v>
+        <v>1667.762690325528</v>
       </c>
       <c r="R2" t="n">
-        <v>1708.319336015094</v>
+        <v>1708.319336015093</v>
       </c>
       <c r="S2" t="n">
-        <v>1573.038260809195</v>
+        <v>1708.319336015093</v>
       </c>
       <c r="T2" t="n">
-        <v>1350.831776756054</v>
+        <v>1486.112851961952</v>
       </c>
       <c r="U2" t="n">
-        <v>1093.771285015564</v>
+        <v>1486.112851961952</v>
       </c>
       <c r="V2" t="n">
-        <v>743.9337303520449</v>
+        <v>1136.275297298433</v>
       </c>
       <c r="W2" t="n">
-        <v>360.1734294872135</v>
+        <v>1136.275297298433</v>
       </c>
       <c r="X2" t="n">
-        <v>78.83257437261989</v>
+        <v>1136.275297298433</v>
       </c>
       <c r="Y2" t="n">
-        <v>78.83257437261989</v>
+        <v>1136.275297298433</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.037348789341</v>
+        <v>712.9972286068362</v>
       </c>
       <c r="C3" t="n">
-        <v>470.0422775382866</v>
+        <v>579.0021573557819</v>
       </c>
       <c r="D3" t="n">
-        <v>353.145119757679</v>
+        <v>462.1049995751744</v>
       </c>
       <c r="E3" t="n">
-        <v>232.652303750007</v>
+        <v>341.6121835675024</v>
       </c>
       <c r="F3" t="n">
-        <v>232.652303750007</v>
+        <v>232.6523037500069</v>
       </c>
       <c r="G3" t="n">
-        <v>125.6621910643457</v>
+        <v>125.6621910643456</v>
       </c>
       <c r="H3" t="n">
-        <v>54.91497810006172</v>
+        <v>54.91497810006169</v>
       </c>
       <c r="I3" t="n">
-        <v>34.16638672030189</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="J3" t="n">
-        <v>34.16638672030189</v>
+        <v>226.9792442829351</v>
       </c>
       <c r="K3" t="n">
-        <v>90.04776433990349</v>
+        <v>649.7882799466706</v>
       </c>
       <c r="L3" t="n">
-        <v>512.8568000036394</v>
+        <v>935.6658356673745</v>
       </c>
       <c r="M3" t="n">
-        <v>512.8568000036394</v>
+        <v>935.6658356673745</v>
       </c>
       <c r="N3" t="n">
-        <v>512.8568000036394</v>
+        <v>935.6658356673745</v>
       </c>
       <c r="O3" t="n">
-        <v>935.6658356673752</v>
+        <v>1358.47487133111</v>
       </c>
       <c r="P3" t="n">
-        <v>1358.474871331111</v>
+        <v>1358.47487133111</v>
       </c>
       <c r="Q3" t="n">
-        <v>1708.319336015094</v>
+        <v>1708.319336015093</v>
       </c>
       <c r="R3" t="n">
-        <v>1708.319336015094</v>
+        <v>1708.319336015093</v>
       </c>
       <c r="S3" t="n">
-        <v>1600.329326129403</v>
+        <v>1708.319336015093</v>
       </c>
       <c r="T3" t="n">
-        <v>1440.987462316411</v>
+        <v>1708.319336015093</v>
       </c>
       <c r="U3" t="n">
-        <v>1243.63665145463</v>
+        <v>1615.972898010337</v>
       </c>
       <c r="V3" t="n">
-        <v>1029.925124447664</v>
+        <v>1402.261371003371</v>
       </c>
       <c r="W3" t="n">
-        <v>816.6919561839926</v>
+        <v>1189.0282027397</v>
       </c>
       <c r="X3" t="n">
-        <v>744.3403814249276</v>
+        <v>1012.702220878593</v>
       </c>
       <c r="Y3" t="n">
-        <v>744.3403814249276</v>
+        <v>853.3002612424228</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1123.500237021439</v>
+        <v>596.6672444373065</v>
       </c>
       <c r="C4" t="n">
-        <v>952.4068645831551</v>
+        <v>425.573871999023</v>
       </c>
       <c r="D4" t="n">
-        <v>792.912219906065</v>
+        <v>359.7083277413911</v>
       </c>
       <c r="E4" t="n">
-        <v>632.0014047743845</v>
+        <v>198.7975126097106</v>
       </c>
       <c r="F4" t="n">
-        <v>467.3702788849757</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="G4" t="n">
-        <v>300.1198878105191</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="H4" t="n">
-        <v>150.5124326159757</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="I4" t="n">
-        <v>34.16638672030189</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="J4" t="n">
-        <v>48.24893612551241</v>
+        <v>48.24893612551239</v>
       </c>
       <c r="K4" t="n">
         <v>202.8012638477504</v>
@@ -4515,25 +4515,25 @@
         <v>1478.292565016552</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.199943415483</v>
+        <v>1291.900796896462</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.199943415483</v>
+        <v>1291.900796896462</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.199943415483</v>
+        <v>1009.102649442586</v>
       </c>
       <c r="V4" t="n">
-        <v>1311.199943415483</v>
+        <v>1009.102649442586</v>
       </c>
       <c r="W4" t="n">
-        <v>1311.199943415483</v>
+        <v>1009.102649442586</v>
       </c>
       <c r="X4" t="n">
-        <v>1311.199943415483</v>
+        <v>1009.102649442586</v>
       </c>
       <c r="Y4" t="n">
-        <v>1311.199943415483</v>
+        <v>784.3669508313509</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>725.6257684434776</v>
+        <v>1320.545542556572</v>
       </c>
       <c r="C5" t="n">
-        <v>719.5415817971517</v>
+        <v>968.5988817752439</v>
       </c>
       <c r="D5" t="n">
-        <v>315.0776518902122</v>
+        <v>968.1753559087084</v>
       </c>
       <c r="E5" t="n">
-        <v>149.794736385201</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F5" t="n">
-        <v>132.8047283792926</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G5" t="n">
         <v>128.1168483125289</v>
@@ -4567,52 +4567,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.450954962253</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N5" t="n">
-        <v>1592.293889628578</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O5" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>1516.210242763442</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W5" t="n">
-        <v>1132.44994189861</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X5" t="n">
-        <v>731.806544067563</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y5" t="n">
-        <v>731.806544067563</v>
+        <v>1730.766722221062</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
         <v>469.7036984844746</v>
@@ -4649,22 +4649,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M6" t="n">
-        <v>1531.257211227551</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N6" t="n">
-        <v>1571.411346813777</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q6" t="n">
         <v>2088.254281480102</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960205</v>
+        <v>847.5024989606081</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>676.4091265223246</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>516.9144818452346</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>356.0036667135541</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H7" t="n">
         <v>41.76508562960205</v>
@@ -4752,25 +4752,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U7" t="n">
-        <v>1020.764063715567</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V7" t="n">
-        <v>746.8783186550887</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W7" t="n">
-        <v>467.8086541639631</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X7" t="n">
-        <v>229.4647920236465</v>
+        <v>1259.937903965888</v>
       </c>
       <c r="Y7" t="n">
-        <v>229.4647920236465</v>
+        <v>1035.202205354653</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1285.591565793852</v>
+        <v>186.3042891971743</v>
       </c>
       <c r="C8" t="n">
-        <v>1279.507379147526</v>
+        <v>74.16631101150881</v>
       </c>
       <c r="D8" t="n">
-        <v>875.0434492405864</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E8" t="n">
-        <v>864.7436377978871</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F8" t="n">
-        <v>847.7536297919787</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G8" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
@@ -4810,16 +4810,16 @@
         <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M8" t="n">
-        <v>1329.636426430007</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N8" t="n">
-        <v>1329.636426430007</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O8" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P8" t="n">
         <v>1726.536628995245</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V8" t="n">
-        <v>2076.176040113816</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W8" t="n">
-        <v>1692.415739248985</v>
+        <v>997.1688666927112</v>
       </c>
       <c r="X8" t="n">
-        <v>1291.772341417937</v>
+        <v>596.5254688616637</v>
       </c>
       <c r="Y8" t="n">
-        <v>1291.772341417937</v>
+        <v>596.5254688616637</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>52.35970185319792</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>508.1659581184966</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>1025.008892784822</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M9" t="n">
-        <v>1025.008892784822</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N9" t="n">
-        <v>1025.008892784822</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.851827451147</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>484.8561672768225</v>
+        <v>590.9601272815059</v>
       </c>
       <c r="C10" t="n">
-        <v>484.8561672768225</v>
+        <v>419.8667548432225</v>
       </c>
       <c r="D10" t="n">
-        <v>325.3615225997325</v>
+        <v>260.3721101661325</v>
       </c>
       <c r="E10" t="n">
-        <v>325.3615225997325</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F10" t="n">
-        <v>325.3615225997325</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4989,25 +4989,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1229.239766185221</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U10" t="n">
-        <v>946.441618731345</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="V10" t="n">
-        <v>672.5558736708668</v>
+        <v>1057.729498166676</v>
       </c>
       <c r="W10" t="n">
-        <v>672.5558736708668</v>
+        <v>778.6598336755503</v>
       </c>
       <c r="X10" t="n">
-        <v>672.5558736708668</v>
+        <v>778.6598336755503</v>
       </c>
       <c r="Y10" t="n">
-        <v>672.5558736708668</v>
+        <v>778.6598336755503</v>
       </c>
     </row>
     <row r="11">
@@ -5029,10 +5029,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>809.8415093489451</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G11" t="n">
-        <v>430.9101360764621</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H11" t="n">
         <v>149.7985495388648</v>
@@ -5068,13 +5068,13 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T11" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U11" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V11" t="n">
         <v>3816.98692220683</v>
@@ -5083,10 +5083,10 @@
         <v>3463.023532176683</v>
       </c>
       <c r="X11" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y11" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>705.4904009953962</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M12" t="n">
-        <v>1548.467481689963</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N12" t="n">
-        <v>1548.467481689963</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O12" t="n">
-        <v>1548.467481689963</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q12" t="n">
         <v>2110.173374178493</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>767.6394927281183</v>
+        <v>357.7756465877518</v>
       </c>
       <c r="C13" t="n">
-        <v>626.3430311245196</v>
+        <v>357.7756465877518</v>
       </c>
       <c r="D13" t="n">
-        <v>496.6452972821144</v>
+        <v>228.0779127453467</v>
       </c>
       <c r="E13" t="n">
-        <v>365.5313929851186</v>
+        <v>228.0779127453467</v>
       </c>
       <c r="F13" t="n">
-        <v>230.6971779303946</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
         <v>93.2436976906228</v>
@@ -5202,13 +5202,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K13" t="n">
-        <v>320.2864794362204</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L13" t="n">
-        <v>609.3875320253555</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749234</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N13" t="n">
         <v>1237.898275478248</v>
@@ -5226,25 +5226,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S13" t="n">
-        <v>1644.203548008749</v>
+        <v>1680.340046142781</v>
       </c>
       <c r="T13" t="n">
-        <v>1434.451719820136</v>
+        <v>1470.588217954168</v>
       </c>
       <c r="U13" t="n">
-        <v>1434.451719820136</v>
+        <v>1217.586981334977</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.362885594343</v>
+        <v>973.4981471091839</v>
       </c>
       <c r="W13" t="n">
-        <v>941.0901319379017</v>
+        <v>724.2253934527431</v>
       </c>
       <c r="X13" t="n">
-        <v>925.542288287478</v>
+        <v>515.6784421471114</v>
       </c>
       <c r="Y13" t="n">
-        <v>925.542288287478</v>
+        <v>515.6784421471114</v>
       </c>
     </row>
     <row r="14">
@@ -5257,19 +5257,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C14" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D14" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E14" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F14" t="n">
-        <v>809.8415093489451</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G14" t="n">
-        <v>430.9101360764621</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H14" t="n">
         <v>149.7985495388648</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T14" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U14" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V14" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X14" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y14" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="15">
@@ -5369,10 +5369,10 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N15" t="n">
-        <v>936.2207783851894</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O15" t="n">
-        <v>1640.177868931084</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>379.7015972963597</v>
+        <v>530.1860997593516</v>
       </c>
       <c r="C16" t="n">
-        <v>379.7015972963597</v>
+        <v>388.8896381557529</v>
       </c>
       <c r="D16" t="n">
-        <v>250.0038634539545</v>
+        <v>259.1919043133478</v>
       </c>
       <c r="E16" t="n">
-        <v>250.0038634539545</v>
+        <v>128.0780000163521</v>
       </c>
       <c r="F16" t="n">
-        <v>250.0038634539545</v>
+        <v>128.0780000163521</v>
       </c>
       <c r="G16" t="n">
-        <v>112.5503832141827</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>112.5503832141827</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5439,13 +5439,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K16" t="n">
-        <v>320.2864794362204</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253555</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M16" t="n">
-        <v>927.8555407749234</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N16" t="n">
         <v>1237.898275478248</v>
@@ -5469,19 +5469,19 @@
         <v>1434.451719820136</v>
       </c>
       <c r="U16" t="n">
-        <v>1434.451719820136</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V16" t="n">
-        <v>1190.362885594343</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W16" t="n">
-        <v>941.0901319379017</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X16" t="n">
-        <v>732.5431806322698</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="Y16" t="n">
-        <v>537.6043928557193</v>
+        <v>688.0888953187111</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C17" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D17" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E17" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F17" t="n">
-        <v>809.8415093489452</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G17" t="n">
-        <v>430.9101360764621</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H17" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T17" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U17" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V17" t="n">
-        <v>3816.986922206831</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W17" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X17" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="18">
@@ -5597,16 +5597,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>1210.13812587521</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>1435.775802995229</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>284.6031562365282</v>
+        <v>182.1761681670857</v>
       </c>
       <c r="C19" t="n">
-        <v>224.3576019876185</v>
+        <v>182.1761681670857</v>
       </c>
       <c r="D19" t="n">
-        <v>224.3576019876185</v>
+        <v>182.1761681670857</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>182.1761681670857</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>182.1761681670857</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>182.1761681670857</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5673,22 +5673,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K19" t="n">
-        <v>320.2864794362204</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253555</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M19" t="n">
-        <v>927.8555407749234</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N19" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O19" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P19" t="n">
         <v>1761.542230672484</v>
@@ -5697,28 +5697,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R19" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S19" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T19" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U19" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V19" t="n">
-        <v>937.3616489751514</v>
+        <v>992.837456465068</v>
       </c>
       <c r="W19" t="n">
-        <v>688.0888953187106</v>
+        <v>743.5647028086273</v>
       </c>
       <c r="X19" t="n">
-        <v>479.5419440130787</v>
+        <v>535.0177515029956</v>
       </c>
       <c r="Y19" t="n">
-        <v>284.6031562365282</v>
+        <v>340.0789637264452</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.613014133292</v>
       </c>
       <c r="C20" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281247</v>
       </c>
       <c r="D20" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208993</v>
       </c>
       <c r="E20" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560574</v>
       </c>
       <c r="F20" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489468</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764639</v>
       </c>
       <c r="H20" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388668</v>
       </c>
       <c r="I20" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K20" t="n">
         <v>885.5886702674165</v>
@@ -5773,31 +5773,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q20" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R20" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S20" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159926</v>
       </c>
       <c r="T20" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.29114694147</v>
       </c>
       <c r="U20" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035666</v>
       </c>
       <c r="V20" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W20" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176685</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180322</v>
       </c>
       <c r="Y20" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963097</v>
       </c>
     </row>
     <row r="21">
@@ -5819,7 +5819,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F21" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G21" t="n">
         <v>184.7395020346666</v>
@@ -5828,22 +5828,22 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I21" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J21" t="n">
-        <v>286.056555253256</v>
+        <v>286.0565552532561</v>
       </c>
       <c r="K21" t="n">
-        <v>494.6659264600851</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>494.6659264600851</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>494.6659264600851</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>494.6659264600851</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
         <v>1198.623017005979</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>126.7003606771693</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="C22" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="D22" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="I22" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J22" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K22" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L22" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M22" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N22" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O22" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P22" t="n">
         <v>1761.542230672484</v>
@@ -5937,25 +5937,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S22" t="n">
-        <v>1644.203548008749</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T22" t="n">
-        <v>1434.451719820136</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U22" t="n">
-        <v>1181.450483200945</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V22" t="n">
-        <v>937.361648975152</v>
+        <v>937.3616489751525</v>
       </c>
       <c r="W22" t="n">
-        <v>688.0888953187111</v>
+        <v>688.0888953187118</v>
       </c>
       <c r="X22" t="n">
-        <v>479.5419440130794</v>
+        <v>479.5419440130801</v>
       </c>
       <c r="Y22" t="n">
-        <v>284.6031562365289</v>
+        <v>284.6031562365297</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133289</v>
       </c>
       <c r="C23" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281244</v>
       </c>
       <c r="D23" t="n">
         <v>1585.61831520899</v>
@@ -5977,7 +5977,7 @@
         <v>1201.075010560572</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489446</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G23" t="n">
         <v>430.9101360764616</v>
@@ -6028,7 +6028,7 @@
         <v>3816.986922206828</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.023532176682</v>
+        <v>3463.023532176681</v>
       </c>
       <c r="X23" t="n">
         <v>3092.177045180319</v>
@@ -6068,25 +6068,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N24" t="n">
-        <v>844.5103911440685</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O24" t="n">
-        <v>1548.467481689963</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
         <v>2110.173374178493</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>357.7756465877517</v>
+        <v>473.865880189882</v>
       </c>
       <c r="C25" t="n">
-        <v>357.7756465877517</v>
+        <v>473.865880189882</v>
       </c>
       <c r="D25" t="n">
-        <v>228.0779127453466</v>
+        <v>344.1681463474769</v>
       </c>
       <c r="E25" t="n">
-        <v>228.0779127453466</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H25" t="n">
         <v>93.2436976906228</v>
@@ -6174,25 +6174,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S25" t="n">
-        <v>1644.20354800875</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T25" t="n">
-        <v>1434.451719820137</v>
+        <v>1591.046577105541</v>
       </c>
       <c r="U25" t="n">
-        <v>1181.450483200946</v>
+        <v>1338.045340486351</v>
       </c>
       <c r="V25" t="n">
-        <v>937.3616489751525</v>
+        <v>1126.624372928505</v>
       </c>
       <c r="W25" t="n">
-        <v>688.0888953187118</v>
+        <v>877.3516192720641</v>
       </c>
       <c r="X25" t="n">
-        <v>479.5419440130801</v>
+        <v>668.8046679664324</v>
       </c>
       <c r="Y25" t="n">
-        <v>479.5419440130801</v>
+        <v>473.865880189882</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C26" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281247</v>
       </c>
       <c r="D26" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E26" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560574</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489461</v>
       </c>
       <c r="G26" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764633</v>
       </c>
       <c r="H26" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388662</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6241,7 +6241,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O26" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P26" t="n">
         <v>4300.467232046283</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T26" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U26" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V26" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W26" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X26" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y26" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M27" t="n">
-        <v>1578.027001052593</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N27" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>364.2378931366266</v>
+        <v>503.1075438309886</v>
       </c>
       <c r="C28" t="n">
-        <v>222.9414315330279</v>
+        <v>361.81108222739</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>361.81108222739</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>230.6971779303944</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>230.6971779303944</v>
       </c>
       <c r="G28" t="n">
         <v>93.2436976906228</v>
@@ -6384,52 +6384,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K28" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362207</v>
       </c>
       <c r="L28" t="n">
-        <v>609.3875320253558</v>
+        <v>609.387532025356</v>
       </c>
       <c r="M28" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749241</v>
       </c>
       <c r="N28" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O28" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P28" t="n">
-        <v>1761.542230672484</v>
+        <v>1761.542230672485</v>
       </c>
       <c r="Q28" t="n">
-        <v>1856.27421278407</v>
+        <v>1856.274212784071</v>
       </c>
       <c r="R28" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.274212784071</v>
       </c>
       <c r="S28" t="n">
-        <v>1644.203548008749</v>
+        <v>1856.274212784071</v>
       </c>
       <c r="T28" t="n">
-        <v>1434.451719820136</v>
+        <v>1646.522384595458</v>
       </c>
       <c r="U28" t="n">
-        <v>1181.450483200945</v>
+        <v>1393.521147976267</v>
       </c>
       <c r="V28" t="n">
-        <v>937.361648975152</v>
+        <v>1313.768832128971</v>
       </c>
       <c r="W28" t="n">
-        <v>688.0888953187111</v>
+        <v>1064.49607847253</v>
       </c>
       <c r="X28" t="n">
-        <v>688.0888953187111</v>
+        <v>855.9491271668983</v>
       </c>
       <c r="Y28" t="n">
-        <v>522.1406886959861</v>
+        <v>661.010339390348</v>
       </c>
     </row>
     <row r="29">
@@ -6442,22 +6442,22 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C29" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281247</v>
       </c>
       <c r="D29" t="n">
         <v>1585.618315208992</v>
       </c>
       <c r="E29" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560574</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489461</v>
       </c>
       <c r="G29" t="n">
-        <v>430.910136076463</v>
+        <v>430.9101360764633</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388662</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6545,22 +6545,22 @@
         <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>674.809389578345</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>674.809389578345</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M30" t="n">
-        <v>674.809389578345</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N30" t="n">
-        <v>1548.467481689963</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O30" t="n">
-        <v>1548.467481689963</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
         <v>2110.173374178493</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>364.2378931366264</v>
+        <v>495.351797433622</v>
       </c>
       <c r="C31" t="n">
-        <v>222.9414315330279</v>
+        <v>354.0553358300234</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>224.3576019876184</v>
       </c>
       <c r="E31" t="n">
         <v>93.2436976906228</v>
@@ -6624,13 +6624,13 @@
         <v>136.530199404908</v>
       </c>
       <c r="K31" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362207</v>
       </c>
       <c r="L31" t="n">
-        <v>609.3875320253559</v>
+        <v>609.387532025356</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749241</v>
       </c>
       <c r="N31" t="n">
         <v>1237.898275478249</v>
@@ -6639,34 +6639,34 @@
         <v>1526.662838113798</v>
       </c>
       <c r="P31" t="n">
-        <v>1761.542230672484</v>
+        <v>1761.542230672485</v>
       </c>
       <c r="Q31" t="n">
-        <v>1856.27421278407</v>
+        <v>1856.274212784071</v>
       </c>
       <c r="R31" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.274212784071</v>
       </c>
       <c r="S31" t="n">
-        <v>1644.20354800875</v>
+        <v>1856.274212784071</v>
       </c>
       <c r="T31" t="n">
-        <v>1434.451719820137</v>
+        <v>1803.103156576588</v>
       </c>
       <c r="U31" t="n">
-        <v>1181.450483200946</v>
+        <v>1550.101919957397</v>
       </c>
       <c r="V31" t="n">
-        <v>937.3616489751525</v>
+        <v>1306.013085731604</v>
       </c>
       <c r="W31" t="n">
-        <v>688.0888953187118</v>
+        <v>1056.740332075163</v>
       </c>
       <c r="X31" t="n">
-        <v>479.5419440130801</v>
+        <v>848.1933807695318</v>
       </c>
       <c r="Y31" t="n">
-        <v>364.2378931366264</v>
+        <v>653.2545929929814</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C32" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D32" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E32" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F32" t="n">
-        <v>809.8415093489457</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G32" t="n">
-        <v>430.9101360764625</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H32" t="n">
         <v>149.7985495388647</v>
@@ -6700,10 +6700,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6715,7 +6715,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P32" t="n">
         <v>4300.467232046283</v>
@@ -6730,22 +6730,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T32" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U32" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V32" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W32" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X32" t="n">
         <v>3092.17704518032</v>
       </c>
       <c r="Y32" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="33">
@@ -6779,19 +6779,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
         <v>1228.182536368609</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>284.6031562365297</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="C34" t="n">
-        <v>143.3066946329311</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="D34" t="n">
-        <v>143.3066946329311</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.613014133292</v>
       </c>
       <c r="C35" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281247</v>
       </c>
       <c r="D35" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E35" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560574</v>
       </c>
       <c r="F35" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489461</v>
       </c>
       <c r="G35" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764625</v>
       </c>
       <c r="H35" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6973,7 +6973,7 @@
         <v>4137.027566035665</v>
       </c>
       <c r="V35" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W35" t="n">
         <v>3463.023532176684</v>
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>256.2636568806545</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>917.3518287999427</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M36" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>284.6031562365289</v>
+        <v>357.7756465877517</v>
       </c>
       <c r="C37" t="n">
-        <v>222.9414315330279</v>
+        <v>357.7756465877517</v>
       </c>
       <c r="D37" t="n">
-        <v>93.2436976906228</v>
+        <v>228.0779127453466</v>
       </c>
       <c r="E37" t="n">
-        <v>93.2436976906228</v>
+        <v>228.0779127453466</v>
       </c>
       <c r="F37" t="n">
         <v>93.2436976906228</v>
@@ -7095,22 +7095,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K37" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L37" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M37" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N37" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O37" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P37" t="n">
         <v>1761.542230672484</v>
@@ -7119,28 +7119,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R37" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S37" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T37" t="n">
-        <v>1434.451719820136</v>
+        <v>1507.624210171359</v>
       </c>
       <c r="U37" t="n">
-        <v>1181.450483200945</v>
+        <v>1254.622973552168</v>
       </c>
       <c r="V37" t="n">
-        <v>937.361648975152</v>
+        <v>1010.534139326375</v>
       </c>
       <c r="W37" t="n">
-        <v>688.0888953187111</v>
+        <v>761.2613856699338</v>
       </c>
       <c r="X37" t="n">
-        <v>479.5419440130794</v>
+        <v>552.7144343643021</v>
       </c>
       <c r="Y37" t="n">
-        <v>284.6031562365289</v>
+        <v>357.7756465877517</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C38" t="n">
         <v>1960.285334281245</v>
@@ -7162,13 +7162,13 @@
         <v>1201.075010560572</v>
       </c>
       <c r="F38" t="n">
-        <v>809.8415093489451</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G38" t="n">
-        <v>430.9101360764621</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H38" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7204,16 +7204,16 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T38" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U38" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V38" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W38" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X38" t="n">
         <v>3092.17704518032</v>
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>364.2378931366267</v>
+        <v>179.7928327516117</v>
       </c>
       <c r="C40" t="n">
-        <v>222.941431533028</v>
+        <v>179.7928327516117</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516117</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516117</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516117</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516117</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516117</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K40" t="n">
-        <v>320.2864794362204</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L40" t="n">
-        <v>609.3875320253555</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M40" t="n">
-        <v>927.8555407749234</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N40" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O40" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P40" t="n">
         <v>1761.542230672484</v>
@@ -7359,25 +7359,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S40" t="n">
-        <v>1644.203548008749</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T40" t="n">
-        <v>1434.451719820136</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U40" t="n">
-        <v>1181.450483200945</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V40" t="n">
-        <v>937.3616489751514</v>
+        <v>937.3616489751525</v>
       </c>
       <c r="W40" t="n">
-        <v>688.0888953187106</v>
+        <v>688.0888953187118</v>
       </c>
       <c r="X40" t="n">
-        <v>479.5419440130787</v>
+        <v>479.5419440130801</v>
       </c>
       <c r="Y40" t="n">
-        <v>364.2378931366267</v>
+        <v>337.6956283109712</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2102.237727455812</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>1692.113136769082</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>873.3089913790391</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>452.2785793327267</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7441,22 +7441,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y41" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>3071.501944945938</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>3732.590116865226</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>3732.590116865226</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N42" t="n">
-        <v>4100.47899204261</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O42" t="n">
-        <v>4100.47899204261</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3901.419010578599</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C43" t="n">
-        <v>3901.419010578599</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>3741.924365901509</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>3581.013550769829</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>3416.38242488042</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>4576.912166206539</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T43" t="n">
-        <v>4576.912166206539</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U43" t="n">
-        <v>4576.912166206539</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V43" t="n">
-        <v>4576.912166206539</v>
+        <v>955.8421396253117</v>
       </c>
       <c r="W43" t="n">
-        <v>4297.842501715413</v>
+        <v>676.772475134186</v>
       </c>
       <c r="X43" t="n">
-        <v>4297.842501715413</v>
+        <v>676.772475134186</v>
       </c>
       <c r="Y43" t="n">
-        <v>4089.118716972644</v>
+        <v>452.0367765229507</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2134.851174492981</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C44" t="n">
-        <v>1724.726583806251</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.262653899312</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>464.5807072718708</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>153.6722098995888</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7684,16 +7684,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>3730.41272590526</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>3346.652425040428</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>2946.009027209381</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2545.072354157471</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>3071.501944945938</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>3071.501944945938</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M45" t="n">
-        <v>3914.479025640505</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N45" t="n">
-        <v>3914.479025640505</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O45" t="n">
-        <v>4618.436116186399</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>4632.62536516851</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>4632.62536516851</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3306.395445751029</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>3297.417113799698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>3297.417113799698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>3297.417113799698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>4475.79311641105</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>4236.244377387751</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>4236.244377387751</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>4236.244377387751</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W46" t="n">
-        <v>3957.174712896625</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X46" t="n">
-        <v>3718.830850756309</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y46" t="n">
-        <v>3494.095152145073</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>516.2162236769907</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>349.0360827441916</v>
+        <v>520.3700584608188</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>205.0170636316349</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>520.2696096295565</v>
       </c>
       <c r="P2" t="n">
-        <v>520.7291972846577</v>
+        <v>520.7291972846575</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>112.271618764011</v>
+        <v>482.9056167883887</v>
       </c>
       <c r="L3" t="n">
-        <v>483.1943578146227</v>
+        <v>344.8797316095398</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
@@ -8072,10 +8072,10 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>484.8313130037736</v>
+        <v>484.8313130037733</v>
       </c>
       <c r="P3" t="n">
-        <v>481.3394690065774</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O5" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,25 +8297,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>93.75312630912974</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>205.3433246237788</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8458,19 +8458,19 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>494.5586588013271</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8531,7 +8531,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>62.07087134908675</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
@@ -8543,19 +8543,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>425.6143201009271</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8771,25 +8771,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>479.785075065536</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8935,7 +8935,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N14" t="n">
         <v>853.701196452193</v>
@@ -9017,13 +9017,13 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P15" t="n">
-        <v>558.8606699624394</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9184,7 +9184,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>128.2784515920617</v>
@@ -9245,19 +9245,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>285.4811293141939</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9406,7 +9406,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L20" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M20" t="n">
         <v>877.4504173780091</v>
@@ -9482,10 +9482,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>266.54231935717</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
@@ -9494,7 +9494,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>621.6393243851574</v>
@@ -9716,10 +9716,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
@@ -9728,16 +9728,16 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>812.0486393063214</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P24" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9956,16 +9956,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>889.5795680239546</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>71.42007065981008</v>
       </c>
       <c r="O27" t="n">
         <v>57.751479</v>
@@ -9974,7 +9974,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10193,7 +10193,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>448.5054134160184</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
@@ -10202,16 +10202,16 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10427,22 +10427,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>352.6623456499191</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>621.6393243851574</v>
@@ -10609,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,16 +10664,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>220.4924082290918</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
@@ -10682,13 +10682,13 @@
         <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O38" t="n">
-        <v>743.3219538248791</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P38" t="n">
         <v>628.1510783507341</v>
@@ -10901,16 +10901,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M39" t="n">
-        <v>506.3432205021228</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
@@ -10925,7 +10925,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,22 +11141,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>424.7983178153498</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P42" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11305,7 +11305,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>877.4504173780092</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
         <v>853.701196452193</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,28 +11378,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
-        <v>68.59220973220897</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H13" t="n">
-        <v>118.61243891626</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037917</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>35.77513315269172</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>191.069116578656</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.989399898785</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540258</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>101.592986134902</v>
       </c>
       <c r="H16" t="n">
-        <v>118.61243891626</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I16" t="n">
-        <v>66.57002504205488</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>80.24039828114215</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D19" t="n">
-        <v>128.4007565039811</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G19" t="n">
-        <v>136.0789454373741</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H19" t="n">
-        <v>118.61243891626</v>
+        <v>30.56929314456161</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037917</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>106.7614006308816</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D22" t="n">
-        <v>128.4007565039811</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E22" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G22" t="n">
         <v>136.078945437374</v>
@@ -24147,7 +24147,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I22" t="n">
-        <v>85.6836437103791</v>
+        <v>52.56154735369715</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35.7751331526908</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C25" t="n">
         <v>139.8834969875626</v>
@@ -24372,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G25" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>85.68364371037904</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>32.34118800126782</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041765</v>
       </c>
       <c r="G28" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>118.6124389162599</v>
+        <v>118.6124389162598</v>
       </c>
       <c r="I28" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037899</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.92104941501623</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>155.0289087125507</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>162.693153194712</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>28.70067534228718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041765</v>
       </c>
       <c r="G31" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373739</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6124389162599</v>
+        <v>118.6124389162598</v>
       </c>
       <c r="I31" t="n">
-        <v>85.68364371037906</v>
+        <v>85.68364371037899</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.92104941501623</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.0289087125507</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>155.0149642613192</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>78.8383895310958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D34" t="n">
         <v>128.400756503981</v>
       </c>
       <c r="E34" t="n">
-        <v>80.24039828114047</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F34" t="n">
         <v>133.4858729041766</v>
@@ -25095,7 +25095,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>85.68364371037906</v>
+        <v>52.56154735369714</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C37" t="n">
-        <v>78.83838953109671</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>129.8027652540257</v>
       </c>
       <c r="F37" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>136.078945437374</v>
@@ -25332,7 +25332,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I37" t="n">
-        <v>85.68364371037912</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>17.51971603269345</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E40" t="n">
-        <v>129.8027652540258</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F40" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G40" t="n">
-        <v>136.0789454373741</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H40" t="n">
-        <v>118.61243891626</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I40" t="n">
-        <v>85.68364371037917</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>78.83838953109749</v>
+        <v>52.56154735369716</v>
       </c>
     </row>
     <row r="41">
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>356.9958808389724</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609751</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>32.69553954252751</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.85179472978106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25873,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>25.66401796922125</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>32.28731256679816</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>160.4938900820832</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -26034,7 +26034,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
@@ -26073,22 +26073,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>194.7158398879883</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>654454.7428747042</v>
+        <v>654454.7428747041</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>686075.9435876864</v>
+        <v>686075.9435876866</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>686075.9435876866</v>
+        <v>686075.9435876864</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>686075.9435876866</v>
+        <v>686075.9435876864</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>553800.1363103535</v>
+      </c>
+      <c r="C2" t="n">
         <v>553800.1363103536</v>
       </c>
-      <c r="C2" t="n">
-        <v>553800.1363103535</v>
-      </c>
       <c r="D2" t="n">
-        <v>553800.1363103535</v>
+        <v>553800.1363103536</v>
       </c>
       <c r="E2" t="n">
-        <v>536688.0895138683</v>
+        <v>536688.0895138686</v>
       </c>
       <c r="F2" t="n">
-        <v>536688.0895138687</v>
+        <v>536688.0895138682</v>
       </c>
       <c r="G2" t="n">
-        <v>536688.0895138683</v>
+        <v>536688.0895138693</v>
       </c>
       <c r="H2" t="n">
-        <v>536688.0895138683</v>
+        <v>536688.0895138693</v>
       </c>
       <c r="I2" t="n">
-        <v>536688.0895138694</v>
+        <v>536688.0895138696</v>
       </c>
       <c r="J2" t="n">
-        <v>536688.0895138684</v>
+        <v>536688.0895138695</v>
       </c>
       <c r="K2" t="n">
-        <v>536688.0895138691</v>
+        <v>536688.0895138698</v>
       </c>
       <c r="L2" t="n">
         <v>536688.0895138693</v>
       </c>
       <c r="M2" t="n">
-        <v>536688.0895138687</v>
+        <v>536688.08951387</v>
       </c>
       <c r="N2" t="n">
-        <v>536688.0895138686</v>
+        <v>536688.0895138691</v>
       </c>
       <c r="O2" t="n">
-        <v>492402.7348096593</v>
+        <v>492402.7348096594</v>
       </c>
       <c r="P2" t="n">
-        <v>492402.7348096592</v>
+        <v>492402.7348096595</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143124.2752108466</v>
+        <v>143124.2752108465</v>
       </c>
       <c r="C3" t="n">
-        <v>30686.46086668816</v>
+        <v>30686.46086668826</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215728.9162805135</v>
+        <v>215728.9162805136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>135342.0294691536</v>
+        <v>135342.0294691537</v>
       </c>
       <c r="K3" t="n">
-        <v>24445.77426110957</v>
+        <v>24445.7742611096</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26432,31 +26432,31 @@
         <v>148366.1238023682</v>
       </c>
       <c r="G4" t="n">
-        <v>148366.1238023682</v>
+        <v>148366.1238023683</v>
       </c>
       <c r="H4" t="n">
-        <v>148366.1238023682</v>
+        <v>148366.1238023683</v>
       </c>
       <c r="I4" t="n">
         <v>148366.1238023683</v>
       </c>
       <c r="J4" t="n">
-        <v>148366.1238023682</v>
+        <v>148366.1238023684</v>
       </c>
       <c r="K4" t="n">
-        <v>148366.1238023683</v>
+        <v>148366.1238023684</v>
       </c>
       <c r="L4" t="n">
         <v>148366.1238023683</v>
       </c>
       <c r="M4" t="n">
-        <v>148366.1238023682</v>
+        <v>148366.1238023683</v>
       </c>
       <c r="N4" t="n">
-        <v>148366.1238023682</v>
+        <v>148366.1238023683</v>
       </c>
       <c r="O4" t="n">
-        <v>118556.0943854994</v>
+        <v>118556.0943854993</v>
       </c>
       <c r="P4" t="n">
         <v>118556.0943854993</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59594.05390742944</v>
+        <v>59594.05390742942</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26484,16 +26484,16 @@
         <v>73345.15677686482</v>
       </c>
       <c r="G5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="H5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686485</v>
       </c>
       <c r="I5" t="n">
         <v>73345.15677686484</v>
       </c>
       <c r="J5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="K5" t="n">
         <v>73345.15677686484</v>
@@ -26502,10 +26502,10 @@
         <v>73345.15677686484</v>
       </c>
       <c r="M5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="N5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="O5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102286.2978770467</v>
+        <v>102286.2978770466</v>
       </c>
       <c r="C6" t="n">
         <v>225371.3390617787</v>
       </c>
       <c r="D6" t="n">
-        <v>256057.7999284669</v>
+        <v>256057.799928467</v>
       </c>
       <c r="E6" t="n">
-        <v>99247.89265412181</v>
+        <v>99197.5631047205</v>
       </c>
       <c r="F6" t="n">
-        <v>314976.8089346357</v>
+        <v>314926.4793852338</v>
       </c>
       <c r="G6" t="n">
-        <v>314976.8089346354</v>
+        <v>314926.4793852347</v>
       </c>
       <c r="H6" t="n">
-        <v>314976.8089346352</v>
+        <v>314926.4793852347</v>
       </c>
       <c r="I6" t="n">
-        <v>314976.8089346362</v>
+        <v>314926.4793852351</v>
       </c>
       <c r="J6" t="n">
-        <v>179634.7794654818</v>
+        <v>179584.4499160812</v>
       </c>
       <c r="K6" t="n">
-        <v>290531.0346735264</v>
+        <v>290480.7051241256</v>
       </c>
       <c r="L6" t="n">
-        <v>314976.8089346362</v>
+        <v>314926.4793852347</v>
       </c>
       <c r="M6" t="n">
-        <v>154618.3584339529</v>
+        <v>154568.0288845527</v>
       </c>
       <c r="N6" t="n">
-        <v>314976.8089346355</v>
+        <v>314926.4793852346</v>
       </c>
       <c r="O6" t="n">
-        <v>302981.4301792866</v>
+        <v>302800.8495866377</v>
       </c>
       <c r="P6" t="n">
-        <v>302981.4301792866</v>
+        <v>302800.8495866378</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I2" t="n">
         <v>29.49894172633805</v>
       </c>
       <c r="J2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="K2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="L2" t="n">
         <v>29.49894172633805</v>
       </c>
       <c r="M2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037736</v>
+        <v>427.0798340037733</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633788</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037736</v>
+        <v>427.0798340037733</v>
       </c>
       <c r="C4" t="n">
-        <v>94.98373636625195</v>
+        <v>94.98373636625223</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037736</v>
+        <v>427.0798340037733</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625195</v>
+        <v>94.98373636625223</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627595</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633788</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037736</v>
+        <v>427.0798340037733</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625195</v>
+        <v>94.98373636625223</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>238.6199493595429</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>118.1095172892893</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>103.954329128455</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27523,10 +27523,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>102.9346630310218</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>92.69280941526351</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>19.10615505383083</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -27605,7 +27605,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>57.59615060634729</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>246.5667269783112</v>
-      </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -27824,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>241.175339843109</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>12.26659715854953</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>295.0067463760537</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>334.381720164261</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>105.8655673197133</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,19 +28061,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>83.17612816737508</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="23">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="C26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="D26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="E26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="F26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="G26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="H26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="I26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="T26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="U26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="V26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="W26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="X26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="C28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="D28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="E28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="F28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="G28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="H28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="I28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="J28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="K28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="L28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="M28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="N28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="O28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="P28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="R28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="S28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="T28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="U28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="V28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="W28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="X28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633811</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="C29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="D29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="E29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="F29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="G29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="H29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="I29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="T29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="U29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="V29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="W29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="X29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="C31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="D31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="E31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="F31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="G31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="H31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="I31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="J31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="K31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="L31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="M31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="N31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="O31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="P31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="R31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="S31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="T31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="U31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="V31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="W31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="X31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633811</v>
       </c>
     </row>
     <row r="32">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C38" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D38" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E38" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F38" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G38" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H38" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I38" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T38" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U38" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V38" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W38" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X38" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C40" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D40" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E40" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F40" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G40" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H40" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I40" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J40" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K40" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L40" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M40" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N40" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O40" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P40" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R40" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S40" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T40" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U40" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V40" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W40" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X40" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="41">
@@ -34701,28 +34701,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>427.0798340037736</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>255.7458582871461</v>
+        <v>427.0798340037733</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>112.1047728750156</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>427.0798340037733</v>
       </c>
       <c r="P2" t="n">
-        <v>427.0798340037736</v>
+        <v>427.0798340037733</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>56.44583597939556</v>
+        <v>427.0798340037733</v>
       </c>
       <c r="L3" t="n">
-        <v>427.0798340037736</v>
+        <v>288.7652077986908</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>427.0798340037736</v>
+        <v>427.0798340037733</v>
       </c>
       <c r="P3" t="n">
-        <v>427.0798340037736</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O5" t="n">
-        <v>500.9700927793177</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N6" t="n">
-        <v>40.55973291537975</v>
-      </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>147.5918456237788</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,19 +35178,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>400.9092955204429</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>10.70163254908674</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
@@ -35263,19 +35263,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>423.670551254687</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P12" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>29.85810036629282</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533847</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K13" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L13" t="n">
-        <v>292.0212652415506</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M13" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N13" t="n">
-        <v>313.1744794983079</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P13" t="n">
-        <v>237.2519116754413</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978322</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N14" t="n">
         <v>760.7889056955737</v>
@@ -35737,13 +35737,13 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P15" t="n">
-        <v>504.6010349596356</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533847</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L16" t="n">
-        <v>292.0212652415506</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M16" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N16" t="n">
-        <v>313.1744794983079</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P16" t="n">
-        <v>237.2519116754413</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978322</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>40.9663087773382</v>
@@ -35965,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>227.9168455757764</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533847</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K19" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L19" t="n">
-        <v>292.0212652415506</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M19" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N19" t="n">
-        <v>313.1744794983079</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O19" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P19" t="n">
-        <v>237.2519116754413</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978322</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L20" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M20" t="n">
         <v>784.1601929209636</v>
@@ -36202,10 +36202,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>210.7165365725546</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36214,7 +36214,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>567.3796893823536</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K22" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L22" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M22" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N22" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O22" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P22" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>758.8552459125715</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P24" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>29.85810036629282</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>832.0152842855372</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533864</v>
       </c>
       <c r="K28" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L28" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415508</v>
       </c>
       <c r="M28" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N28" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983081</v>
       </c>
       <c r="O28" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P28" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754415</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978329</v>
+        <v>95.6888708197834</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>392.679630631403</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,16 +36922,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P30" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>29.85810036629282</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533864</v>
       </c>
       <c r="K31" t="n">
         <v>185.612404072033</v>
       </c>
       <c r="L31" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415508</v>
       </c>
       <c r="M31" t="n">
         <v>321.6848573227959</v>
       </c>
       <c r="N31" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983081</v>
       </c>
       <c r="O31" t="n">
         <v>291.6813763995443</v>
       </c>
       <c r="P31" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754415</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978333</v>
+        <v>95.6888708197834</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>294.9108666499191</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>567.3796893823536</v>
@@ -37247,7 +37247,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978333</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>164.6666254444764</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K37" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L37" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M37" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N37" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O37" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P37" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O38" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P38" t="n">
         <v>534.50171506985</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M39" t="n">
-        <v>448.7789367637054</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.72373910533847</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K40" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L40" t="n">
-        <v>292.0212652415506</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M40" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N40" t="n">
-        <v>313.1744794983079</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O40" t="n">
-        <v>291.6813763995441</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P40" t="n">
-        <v>237.2519116754413</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.68887081978322</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>371.6049244215998</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P42" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
         <v>760.7889056955737</v>
@@ -38040,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
-        <v>14.33257472940522</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
